--- a/teaching/traditional_assets/database/data/turkey/turkey_precious_metals.xlsx
+++ b/teaching/traditional_assets/database/data/turkey/turkey_precious_metals.xlsx
@@ -647,10 +647,10 @@
         <v>0.2720825274016763</v>
       </c>
       <c r="X2">
-        <v>0.09880484211366522</v>
+        <v>0.09646820769292858</v>
       </c>
       <c r="Y2">
-        <v>0.1732776852880111</v>
+        <v>0.1756143197087477</v>
       </c>
       <c r="Z2">
         <v>1.629269797208729</v>
@@ -659,10 +659,10 @@
         <v>0.7313823242794838</v>
       </c>
       <c r="AB2">
-        <v>0.09877094663866577</v>
+        <v>0.09643204283749499</v>
       </c>
       <c r="AC2">
-        <v>0.632611377640818</v>
+        <v>0.6349502814419888</v>
       </c>
       <c r="AD2">
         <v>1.65</v>
@@ -778,10 +778,10 @@
         <v>0.2720825274016763</v>
       </c>
       <c r="X3">
-        <v>0.09880484211366522</v>
+        <v>0.09646820769292858</v>
       </c>
       <c r="Y3">
-        <v>0.1732776852880111</v>
+        <v>0.1756143197087477</v>
       </c>
       <c r="Z3">
         <v>1.629269797208729</v>
@@ -790,10 +790,10 @@
         <v>0.7313823242794838</v>
       </c>
       <c r="AB3">
-        <v>0.09877094663866577</v>
+        <v>0.09643204283749499</v>
       </c>
       <c r="AC3">
-        <v>0.632611377640818</v>
+        <v>0.6349502814419888</v>
       </c>
       <c r="AD3">
         <v>1.65</v>
@@ -1093,37 +1093,37 @@
         <v>0.000830251339723753</v>
       </c>
       <c r="F2">
-        <v>0.93</v>
+        <v>0.9</v>
       </c>
       <c r="G2">
         <v>1985.7</v>
       </c>
       <c r="H2">
-        <v>260.129774025453</v>
+        <v>323.178072154857</v>
       </c>
       <c r="I2">
         <v>1267.35</v>
       </c>
       <c r="J2">
-        <v>1388.36527402545</v>
+        <v>1391.79307215486</v>
       </c>
       <c r="K2">
         <v>1.65</v>
       </c>
       <c r="L2">
-        <v>1848.2355</v>
+        <v>1788.615</v>
       </c>
       <c r="M2">
-        <v>0.0987709466386658</v>
+        <v>0.096432042837495</v>
       </c>
       <c r="N2">
-        <v>0.08819442798686281</v>
+        <v>0.08560582157010101</v>
       </c>
       <c r="O2">
-        <v>0.057979283180236</v>
+        <v>0.052909283180236</v>
       </c>
       <c r="P2">
-        <v>0.022698</v>
+        <v>0.016458</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -1132,23 +1132,23 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A2/A</t>
         </is>
       </c>
       <c r="S2">
-        <v>0.09880484211366521</v>
+        <v>0.0964682076929286</v>
       </c>
       <c r="T2">
-        <v>0.958361256955183</v>
+        <v>0.70793621570101</v>
       </c>
       <c r="U2">
         <v>0.867367829013199</v>
       </c>
       <c r="V2">
-        <v>9.849393003333899</v>
+        <v>6.95178429981349</v>
       </c>
       <c r="W2">
-        <v>4.544131648566031</v>
+        <v>6.475926003430359</v>
       </c>
       <c r="X2">
         <v>0</v>
@@ -1157,16 +1157,16 @@
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.0158</v>
+        <v>0.009299999999999999</v>
       </c>
       <c r="AA2">
         <v>1985.7</v>
       </c>
       <c r="AB2">
-        <v>0.09569739542691996</v>
+        <v>0.10049739542692</v>
       </c>
       <c r="AC2">
-        <v>0.07433241433363595</v>
+        <v>0.06783241433363595</v>
       </c>
       <c r="AD2">
         <v>0.22</v>
@@ -1361,13 +1361,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.09875107868602312</v>
+        <v>0.09641174759364217</v>
       </c>
       <c r="C2">
-        <v>1987.557546066868</v>
+        <v>1987.562462749868</v>
       </c>
       <c r="D2">
-        <v>1267.557546066868</v>
+        <v>1267.562462749868</v>
       </c>
       <c r="E2">
         <v>-1.65</v>
@@ -1412,19 +1412,19 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09875107868602312</v>
+        <v>0.09641174759364217</v>
       </c>
       <c r="T2">
         <v>0.8668060224206346</v>
       </c>
       <c r="U2">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V2">
         <v>0.22</v>
       </c>
       <c r="W2">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X2" t="inlineStr">
         <is>
@@ -1443,13 +1443,13 @@
         <v>0.01</v>
       </c>
       <c r="B3">
-        <v>0.09858764631291388</v>
+        <v>0.09625346174893616</v>
       </c>
       <c r="C3">
-        <v>1969.39388826448</v>
+        <v>1969.3484411522</v>
       </c>
       <c r="D3">
-        <v>1269.26738826448</v>
+        <v>1269.2219411522</v>
       </c>
       <c r="E3">
         <v>18.2235</v>
@@ -1476,37 +1476,37 @@
         <v>244.4</v>
       </c>
       <c r="M3">
-        <v>0.4511284500000001</v>
+        <v>0.3219507</v>
       </c>
       <c r="N3">
-        <v>243.94887155</v>
+        <v>244.0780493</v>
       </c>
       <c r="O3">
-        <v>53.668751741</v>
+        <v>53.697170846</v>
       </c>
       <c r="P3">
-        <v>190.280119809</v>
+        <v>190.380878454</v>
       </c>
       <c r="Q3">
-        <v>221.780119809</v>
+        <v>221.880878454</v>
       </c>
       <c r="R3">
         <v>0.0101010101010101</v>
       </c>
       <c r="S3">
-        <v>0.09940463263930693</v>
+        <v>0.09709808257468298</v>
       </c>
       <c r="T3">
         <v>0.8736354032033427</v>
       </c>
       <c r="U3">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V3">
         <v>0.22</v>
       </c>
       <c r="W3">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X3" t="inlineStr">
         <is>
@@ -1514,7 +1514,7 @@
         </is>
       </c>
       <c r="Y3">
-        <v>541.7525762341079</v>
+        <v>759.122437068781</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -1525,13 +1525,13 @@
         <v>0.02</v>
       </c>
       <c r="B4">
-        <v>0.09842421393980461</v>
+        <v>0.09609517590423013</v>
       </c>
       <c r="C4">
-        <v>1951.234849596497</v>
+        <v>1951.138770391211</v>
       </c>
       <c r="D4">
-        <v>1270.981849596497</v>
+        <v>1270.885770391211</v>
       </c>
       <c r="E4">
         <v>38.09700000000001</v>
@@ -1558,37 +1558,37 @@
         <v>244.4</v>
       </c>
       <c r="M4">
-        <v>0.9022569000000003</v>
+        <v>0.6439014000000001</v>
       </c>
       <c r="N4">
-        <v>243.4977431</v>
+        <v>243.7560986</v>
       </c>
       <c r="O4">
-        <v>53.569503482</v>
+        <v>53.626341692</v>
       </c>
       <c r="P4">
-        <v>189.928239618</v>
+        <v>190.129756908</v>
       </c>
       <c r="Q4">
-        <v>221.428239618</v>
+        <v>221.629756908</v>
       </c>
       <c r="R4">
         <v>0.02040816326530612</v>
       </c>
       <c r="S4">
-        <v>0.1000715244283721</v>
+        <v>0.09779842439207156</v>
       </c>
       <c r="T4">
         <v>0.8806041591040651</v>
       </c>
       <c r="U4">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V4">
         <v>0.22</v>
       </c>
       <c r="W4">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X4" t="inlineStr">
         <is>
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="Y4">
-        <v>270.8762881170539</v>
+        <v>379.5612185343905</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -1607,13 +1607,13 @@
         <v>0.03</v>
       </c>
       <c r="B5">
-        <v>0.09826078156669538</v>
+        <v>0.09593689005952415</v>
       </c>
       <c r="C5">
-        <v>1933.080448806108</v>
+        <v>1932.933467599959</v>
       </c>
       <c r="D5">
-        <v>1272.700948806108</v>
+        <v>1272.553967599959</v>
       </c>
       <c r="E5">
         <v>57.9705</v>
@@ -1640,37 +1640,37 @@
         <v>244.4</v>
       </c>
       <c r="M5">
-        <v>1.35338535</v>
+        <v>0.9658521</v>
       </c>
       <c r="N5">
-        <v>243.04661465</v>
+        <v>243.4341479</v>
       </c>
       <c r="O5">
-        <v>53.470255223</v>
+        <v>53.555512538</v>
       </c>
       <c r="P5">
-        <v>189.576359427</v>
+        <v>189.878635362</v>
       </c>
       <c r="Q5">
-        <v>221.076359427</v>
+        <v>221.378635362</v>
       </c>
       <c r="R5">
         <v>0.03092783505154639</v>
       </c>
       <c r="S5">
-        <v>0.1007521665636035</v>
+        <v>0.09851320624693211</v>
       </c>
       <c r="T5">
         <v>0.8877166006934624</v>
       </c>
       <c r="U5">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V5">
         <v>0.22</v>
       </c>
       <c r="W5">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X5" t="inlineStr">
         <is>
@@ -1678,7 +1678,7 @@
         </is>
       </c>
       <c r="Y5">
-        <v>180.584192078036</v>
+        <v>253.0408123562603</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -1689,13 +1689,13 @@
         <v>0.04</v>
       </c>
       <c r="B6">
-        <v>0.09809734919358611</v>
+        <v>0.09577860421481811</v>
       </c>
       <c r="C6">
-        <v>1914.930704738043</v>
+        <v>1914.732550001579</v>
       </c>
       <c r="D6">
-        <v>1274.424704738042</v>
+        <v>1274.226550001579</v>
       </c>
       <c r="E6">
         <v>77.84400000000001</v>
@@ -1722,37 +1722,37 @@
         <v>244.4</v>
       </c>
       <c r="M6">
-        <v>1.804513800000001</v>
+        <v>1.2878028</v>
       </c>
       <c r="N6">
-        <v>242.5954862</v>
+        <v>243.1121972</v>
       </c>
       <c r="O6">
-        <v>53.371006964</v>
+        <v>53.484683384</v>
       </c>
       <c r="P6">
-        <v>189.224479236</v>
+        <v>189.627513816</v>
       </c>
       <c r="Q6">
-        <v>220.724479236</v>
+        <v>221.127513816</v>
       </c>
       <c r="R6">
         <v>0.04166666666666667</v>
       </c>
       <c r="S6">
-        <v>0.1014469887433189</v>
+        <v>0.09924287939043554</v>
       </c>
       <c r="T6">
         <v>0.8949772181493052</v>
       </c>
       <c r="U6">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V6">
         <v>0.22</v>
       </c>
       <c r="W6">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X6" t="inlineStr">
         <is>
@@ -1760,7 +1760,7 @@
         </is>
       </c>
       <c r="Y6">
-        <v>135.438144058527</v>
+        <v>189.7806092671952</v>
       </c>
       <c r="Z6">
         <v>0</v>
@@ -1771,13 +1771,13 @@
         <v>0.05</v>
       </c>
       <c r="B7">
-        <v>0.09793391682047689</v>
+        <v>0.09562031837011212</v>
       </c>
       <c r="C7">
-        <v>1896.785636339264</v>
+        <v>1896.536034909873</v>
       </c>
       <c r="D7">
-        <v>1276.153136339264</v>
+        <v>1275.903534909873</v>
       </c>
       <c r="E7">
         <v>97.7175</v>
@@ -1804,37 +1804,37 @@
         <v>244.4</v>
       </c>
       <c r="M7">
-        <v>2.25564225</v>
+        <v>1.6097535</v>
       </c>
       <c r="N7">
-        <v>242.14435775</v>
+        <v>242.7902465</v>
       </c>
       <c r="O7">
-        <v>53.271758705</v>
+        <v>53.41385423</v>
       </c>
       <c r="P7">
-        <v>188.872599045</v>
+        <v>189.37639227</v>
       </c>
       <c r="Q7">
-        <v>220.372599045</v>
+        <v>220.87639227</v>
       </c>
       <c r="R7">
         <v>0.05263157894736843</v>
       </c>
       <c r="S7">
-        <v>0.1021564387583967</v>
+        <v>0.09998791407380223</v>
       </c>
       <c r="T7">
         <v>0.9023906907094819</v>
       </c>
       <c r="U7">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V7">
         <v>0.22</v>
       </c>
       <c r="W7">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X7" t="inlineStr">
         <is>
@@ -1842,7 +1842,7 @@
         </is>
       </c>
       <c r="Y7">
-        <v>108.3505152468216</v>
+        <v>151.8244874137562</v>
       </c>
       <c r="Z7">
         <v>0</v>
@@ -1853,13 +1853,13 @@
         <v>0.06</v>
       </c>
       <c r="B8">
-        <v>0.09777048444736762</v>
+        <v>0.09546203252540608</v>
       </c>
       <c r="C8">
-        <v>1878.645262659664</v>
+        <v>1878.34393972991</v>
       </c>
       <c r="D8">
-        <v>1277.886262659664</v>
+        <v>1277.58493972991</v>
       </c>
       <c r="E8">
         <v>117.591</v>
@@ -1886,37 +1886,37 @@
         <v>244.4</v>
       </c>
       <c r="M8">
-        <v>2.7067707</v>
+        <v>1.9317042</v>
       </c>
       <c r="N8">
-        <v>241.6932293</v>
+        <v>242.4682958</v>
       </c>
       <c r="O8">
-        <v>53.172510446</v>
+        <v>53.343025076</v>
       </c>
       <c r="P8">
-        <v>188.520718854</v>
+        <v>189.125270724</v>
       </c>
       <c r="Q8">
-        <v>220.020718854</v>
+        <v>220.625270724</v>
       </c>
       <c r="R8">
         <v>0.06382978723404255</v>
       </c>
       <c r="S8">
-        <v>0.1028809834546464</v>
+        <v>0.1007488005589427</v>
       </c>
       <c r="T8">
         <v>0.9099618967283853</v>
       </c>
       <c r="U8">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V8">
         <v>0.22</v>
       </c>
       <c r="W8">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X8" t="inlineStr">
         <is>
@@ -1924,7 +1924,7 @@
         </is>
       </c>
       <c r="Y8">
-        <v>90.29209603901801</v>
+        <v>126.5204061781302</v>
       </c>
       <c r="Z8">
         <v>0</v>
@@ -1935,13 +1935,13 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="B9">
-        <v>0.09760705207425838</v>
+        <v>0.09530374668070007</v>
       </c>
       <c r="C9">
-        <v>1860.509602852756</v>
+        <v>1860.156281958624</v>
       </c>
       <c r="D9">
-        <v>1279.624102852756</v>
+        <v>1279.270781958624</v>
       </c>
       <c r="E9">
         <v>137.4645</v>
@@ -1968,37 +1968,37 @@
         <v>244.4</v>
       </c>
       <c r="M9">
-        <v>3.157899150000001</v>
+        <v>2.2536549</v>
       </c>
       <c r="N9">
-        <v>241.24210085</v>
+        <v>242.1463451</v>
       </c>
       <c r="O9">
-        <v>53.073262187</v>
+        <v>53.272195922</v>
       </c>
       <c r="P9">
-        <v>188.168838663</v>
+        <v>188.874149178</v>
       </c>
       <c r="Q9">
-        <v>219.668838663</v>
+        <v>220.374149178</v>
       </c>
       <c r="R9">
         <v>0.07526881720430109</v>
       </c>
       <c r="S9">
-        <v>0.1036211097572671</v>
+        <v>0.1015260501943012</v>
       </c>
       <c r="T9">
         <v>0.9176959243821042</v>
       </c>
       <c r="U9">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V9">
         <v>0.22</v>
       </c>
       <c r="W9">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X9" t="inlineStr">
         <is>
@@ -2006,7 +2006,7 @@
         </is>
       </c>
       <c r="Y9">
-        <v>77.39322517630113</v>
+        <v>108.4460624383973</v>
       </c>
       <c r="Z9">
         <v>0</v>
@@ -2017,13 +2017,13 @@
         <v>0.08</v>
       </c>
       <c r="B10">
-        <v>0.09744361970114912</v>
+        <v>0.09514546083599407</v>
       </c>
       <c r="C10">
-        <v>1842.37867617639</v>
+        <v>1841.973079185426</v>
       </c>
       <c r="D10">
-        <v>1281.36667617639</v>
+        <v>1280.961079185426</v>
       </c>
       <c r="E10">
         <v>157.338</v>
@@ -2050,37 +2050,37 @@
         <v>244.4</v>
       </c>
       <c r="M10">
-        <v>3.609027600000001</v>
+        <v>2.5756056</v>
       </c>
       <c r="N10">
-        <v>240.7909724</v>
+        <v>241.8243944</v>
       </c>
       <c r="O10">
-        <v>52.97401392800001</v>
+        <v>53.20136676800001</v>
       </c>
       <c r="P10">
-        <v>187.816958472</v>
+        <v>188.623027632</v>
       </c>
       <c r="Q10">
-        <v>219.316958472</v>
+        <v>220.123027632</v>
       </c>
       <c r="R10">
         <v>0.08695652173913043</v>
       </c>
       <c r="S10">
-        <v>0.1043773257621186</v>
+        <v>0.1023201965608631</v>
       </c>
       <c r="T10">
         <v>0.9255980830717733</v>
       </c>
       <c r="U10">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V10">
         <v>0.22</v>
       </c>
       <c r="W10">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X10" t="inlineStr">
         <is>
@@ -2088,7 +2088,7 @@
         </is>
       </c>
       <c r="Y10">
-        <v>67.71907202926349</v>
+        <v>94.89030463359762</v>
       </c>
       <c r="Z10">
         <v>0</v>
@@ -2099,13 +2099,13 @@
         <v>0.09</v>
       </c>
       <c r="B11">
-        <v>0.09728018732803988</v>
+        <v>0.09498717499128806</v>
       </c>
       <c r="C11">
-        <v>1824.252501993456</v>
+        <v>1823.794349092814</v>
       </c>
       <c r="D11">
-        <v>1283.114001993456</v>
+        <v>1282.655849092814</v>
       </c>
       <c r="E11">
         <v>177.2115</v>
@@ -2132,37 +2132,37 @@
         <v>244.4</v>
       </c>
       <c r="M11">
-        <v>4.060156050000001</v>
+        <v>2.8975563</v>
       </c>
       <c r="N11">
-        <v>240.33984395</v>
+        <v>241.5024437</v>
       </c>
       <c r="O11">
-        <v>52.87476566900001</v>
+        <v>53.130537614</v>
       </c>
       <c r="P11">
-        <v>187.465078281</v>
+        <v>188.371906086</v>
       </c>
       <c r="Q11">
-        <v>218.965078281</v>
+        <v>219.871906086</v>
       </c>
       <c r="R11">
         <v>0.0989010989010989</v>
       </c>
       <c r="S11">
-        <v>0.1051501618989449</v>
+        <v>0.1031317966937231</v>
       </c>
       <c r="T11">
         <v>0.933673915578798</v>
       </c>
       <c r="U11">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V11">
         <v>0.22</v>
       </c>
       <c r="W11">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X11" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
         </is>
       </c>
       <c r="Y11">
-        <v>60.19473069267867</v>
+        <v>84.34693745208679</v>
       </c>
       <c r="Z11">
         <v>0</v>
@@ -2181,13 +2181,13 @@
         <v>0.1</v>
       </c>
       <c r="B12">
-        <v>0.09711675495493062</v>
+        <v>0.09482888914658205</v>
       </c>
       <c r="C12">
-        <v>1806.131099772606</v>
+        <v>1805.620109456986</v>
       </c>
       <c r="D12">
-        <v>1284.866099772607</v>
+        <v>1284.355109456986</v>
       </c>
       <c r="E12">
         <v>197.085</v>
@@ -2214,37 +2214,37 @@
         <v>244.4</v>
       </c>
       <c r="M12">
-        <v>4.5112845</v>
+        <v>3.219507</v>
       </c>
       <c r="N12">
-        <v>239.8887155</v>
+        <v>241.180493</v>
       </c>
       <c r="O12">
-        <v>52.77551741000001</v>
+        <v>53.05970846</v>
       </c>
       <c r="P12">
-        <v>187.11319809</v>
+        <v>188.12078454</v>
       </c>
       <c r="Q12">
-        <v>218.61319809</v>
+        <v>219.62078454</v>
       </c>
       <c r="R12">
         <v>0.1111111111111111</v>
       </c>
       <c r="S12">
-        <v>0.1059401721721451</v>
+        <v>0.1039614323850912</v>
       </c>
       <c r="T12">
         <v>0.941929211030423</v>
       </c>
       <c r="U12">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V12">
         <v>0.22</v>
       </c>
       <c r="W12">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X12" t="inlineStr">
         <is>
@@ -2252,7 +2252,7 @@
         </is>
       </c>
       <c r="Y12">
-        <v>54.17525762341081</v>
+        <v>75.9122437068781</v>
       </c>
       <c r="Z12">
         <v>0</v>
@@ -2263,13 +2263,13 @@
         <v>0.11</v>
       </c>
       <c r="B13">
-        <v>0.09695332258182139</v>
+        <v>0.09467060330187603</v>
       </c>
       <c r="C13">
-        <v>1788.014489088976</v>
+        <v>1787.450378148468</v>
       </c>
       <c r="D13">
-        <v>1286.622989088976</v>
+        <v>1286.058878148468</v>
       </c>
       <c r="E13">
         <v>216.9585</v>
@@ -2296,37 +2296,37 @@
         <v>244.4</v>
       </c>
       <c r="M13">
-        <v>4.962412950000001</v>
+        <v>3.5414577</v>
       </c>
       <c r="N13">
-        <v>239.43758705</v>
+        <v>240.8585423</v>
       </c>
       <c r="O13">
-        <v>52.676269151</v>
+        <v>52.988879306</v>
       </c>
       <c r="P13">
-        <v>186.761317899</v>
+        <v>187.869662994</v>
       </c>
       <c r="Q13">
-        <v>218.261317899</v>
+        <v>219.369662994</v>
       </c>
       <c r="R13">
         <v>0.1235955056179775</v>
       </c>
       <c r="S13">
-        <v>0.1067479354851926</v>
+        <v>0.1048097115751416</v>
       </c>
       <c r="T13">
         <v>0.9503700187393881</v>
       </c>
       <c r="U13">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V13">
         <v>0.22</v>
       </c>
       <c r="W13">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X13" t="inlineStr">
         <is>
@@ -2334,7 +2334,7 @@
         </is>
       </c>
       <c r="Y13">
-        <v>49.25023420310072</v>
+        <v>69.01113064261646</v>
       </c>
       <c r="Z13">
         <v>0</v>
@@ -2345,13 +2345,13 @@
         <v>0.12</v>
       </c>
       <c r="B14">
-        <v>0.09678989020871213</v>
+        <v>0.09451231745717002</v>
       </c>
       <c r="C14">
-        <v>1769.902689624912</v>
+        <v>1769.285173132733</v>
       </c>
       <c r="D14">
-        <v>1288.384689624912</v>
+        <v>1287.767173132733</v>
       </c>
       <c r="E14">
         <v>236.832</v>
@@ -2378,37 +2378,37 @@
         <v>244.4</v>
       </c>
       <c r="M14">
-        <v>5.413541400000001</v>
+        <v>3.8634084</v>
       </c>
       <c r="N14">
-        <v>238.9864586</v>
+        <v>240.5365916</v>
       </c>
       <c r="O14">
-        <v>52.577020892</v>
+        <v>52.918050152</v>
       </c>
       <c r="P14">
-        <v>186.409437708</v>
+        <v>187.618541448</v>
       </c>
       <c r="Q14">
-        <v>217.909437708</v>
+        <v>219.118541448</v>
       </c>
       <c r="R14">
         <v>0.1363636363636364</v>
       </c>
       <c r="S14">
-        <v>0.1075740570553547</v>
+        <v>0.1056772698376932</v>
       </c>
       <c r="T14">
         <v>0.9590026629871932</v>
       </c>
       <c r="U14">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V14">
         <v>0.22</v>
       </c>
       <c r="W14">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X14" t="inlineStr">
         <is>
@@ -2416,7 +2416,7 @@
         </is>
       </c>
       <c r="Y14">
-        <v>45.146048019509</v>
+        <v>63.26020308906509</v>
       </c>
       <c r="Z14">
         <v>0</v>
@@ -2427,13 +2427,13 @@
         <v>0.13</v>
       </c>
       <c r="B15">
-        <v>0.09662645783560286</v>
+        <v>0.094354031612464</v>
       </c>
       <c r="C15">
-        <v>1751.795721170711</v>
+        <v>1751.12451247084</v>
       </c>
       <c r="D15">
-        <v>1290.151221170711</v>
+        <v>1289.48001247084</v>
       </c>
       <c r="E15">
         <v>256.7055</v>
@@ -2460,37 +2460,37 @@
         <v>244.4</v>
       </c>
       <c r="M15">
-        <v>5.86466985</v>
+        <v>4.185359099999999</v>
       </c>
       <c r="N15">
-        <v>238.53533015</v>
+        <v>240.2146409</v>
       </c>
       <c r="O15">
-        <v>52.477772633</v>
+        <v>52.847220998</v>
       </c>
       <c r="P15">
-        <v>186.057557517</v>
+        <v>187.367419902</v>
       </c>
       <c r="Q15">
-        <v>217.557557517</v>
+        <v>218.867419902</v>
       </c>
       <c r="R15">
         <v>0.1494252873563219</v>
       </c>
       <c r="S15">
-        <v>0.1084191699259803</v>
+        <v>0.1065647719683494</v>
       </c>
       <c r="T15">
         <v>0.9678337588269017</v>
       </c>
       <c r="U15">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V15">
         <v>0.22</v>
       </c>
       <c r="W15">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X15" t="inlineStr">
         <is>
@@ -2498,7 +2498,7 @@
         </is>
       </c>
       <c r="Y15">
-        <v>41.67327509493138</v>
+        <v>58.39403362067547</v>
       </c>
       <c r="Z15">
         <v>0</v>
@@ -2509,13 +2509,13 @@
         <v>0.14</v>
       </c>
       <c r="B16">
-        <v>0.09646302546249359</v>
+        <v>0.09419574576775799</v>
       </c>
       <c r="C16">
-        <v>1733.693603625356</v>
+        <v>1732.968414320064</v>
       </c>
       <c r="D16">
-        <v>1291.922603625356</v>
+        <v>1291.197414320064</v>
       </c>
       <c r="E16">
         <v>276.5790000000001</v>
@@ -2542,37 +2542,37 @@
         <v>244.4</v>
       </c>
       <c r="M16">
-        <v>6.315798300000002</v>
+        <v>4.507309800000001</v>
       </c>
       <c r="N16">
-        <v>238.0842017</v>
+        <v>239.8926902</v>
       </c>
       <c r="O16">
-        <v>52.378524374</v>
+        <v>52.776391844</v>
       </c>
       <c r="P16">
-        <v>185.705677326</v>
+        <v>187.116298356</v>
       </c>
       <c r="Q16">
-        <v>217.205677326</v>
+        <v>218.616298356</v>
       </c>
       <c r="R16">
         <v>0.1627906976744186</v>
       </c>
       <c r="S16">
-        <v>0.1092839365842949</v>
+        <v>0.1074729136834395</v>
       </c>
       <c r="T16">
         <v>0.9768702289884641</v>
       </c>
       <c r="U16">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V16">
         <v>0.22</v>
       </c>
       <c r="W16">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X16" t="inlineStr">
         <is>
@@ -2580,7 +2580,7 @@
         </is>
       </c>
       <c r="Y16">
-        <v>38.69661258815056</v>
+        <v>54.22303121919864</v>
       </c>
       <c r="Z16">
         <v>0</v>
@@ -2591,13 +2591,13 @@
         <v>0.15</v>
       </c>
       <c r="B17">
-        <v>0.09629959308938436</v>
+        <v>0.09403745992305197</v>
       </c>
       <c r="C17">
-        <v>1715.596356997267</v>
+        <v>1714.816896934545</v>
       </c>
       <c r="D17">
-        <v>1293.698856997267</v>
+        <v>1292.919396934544</v>
       </c>
       <c r="E17">
         <v>296.4525</v>
@@ -2624,37 +2624,37 @@
         <v>244.4</v>
       </c>
       <c r="M17">
-        <v>6.766926750000001</v>
+        <v>4.8292605</v>
       </c>
       <c r="N17">
-        <v>237.63307325</v>
+        <v>239.5707395</v>
       </c>
       <c r="O17">
-        <v>52.279276115</v>
+        <v>52.70556269</v>
       </c>
       <c r="P17">
-        <v>185.353797135</v>
+        <v>186.86517681</v>
       </c>
       <c r="Q17">
-        <v>216.853797135</v>
+        <v>218.36517681</v>
       </c>
       <c r="R17">
         <v>0.1764705882352941</v>
       </c>
       <c r="S17">
-        <v>0.1101690506933934</v>
+        <v>0.1084024234388847</v>
       </c>
       <c r="T17">
         <v>0.9861193219773573</v>
       </c>
       <c r="U17">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V17">
         <v>0.22</v>
       </c>
       <c r="W17">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X17" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         </is>
       </c>
       <c r="Y17">
-        <v>36.1168384156072</v>
+        <v>50.60816247125207</v>
       </c>
       <c r="Z17">
         <v>0</v>
@@ -2673,13 +2673,13 @@
         <v>0.16</v>
       </c>
       <c r="B18">
-        <v>0.09613616071627512</v>
+        <v>0.09387917407834596</v>
       </c>
       <c r="C18">
-        <v>1697.504001405052</v>
+        <v>1696.669978665923</v>
       </c>
       <c r="D18">
-        <v>1295.480001405052</v>
+        <v>1294.645978665923</v>
       </c>
       <c r="E18">
         <v>316.3260000000001</v>
@@ -2706,37 +2706,37 @@
         <v>244.4</v>
       </c>
       <c r="M18">
-        <v>7.218055200000002</v>
+        <v>5.151211200000001</v>
       </c>
       <c r="N18">
-        <v>237.1819448</v>
+        <v>239.2487888</v>
       </c>
       <c r="O18">
-        <v>52.180027856</v>
+        <v>52.634733536</v>
       </c>
       <c r="P18">
-        <v>185.001916944</v>
+        <v>186.614055264</v>
       </c>
       <c r="Q18">
-        <v>216.501916944</v>
+        <v>218.114055264</v>
       </c>
       <c r="R18">
         <v>0.1904761904761905</v>
       </c>
       <c r="S18">
-        <v>0.1110752389479466</v>
+        <v>0.1093540643789833</v>
       </c>
       <c r="T18">
         <v>0.9955886314659861</v>
       </c>
       <c r="U18">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V18">
         <v>0.22</v>
       </c>
       <c r="W18">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X18" t="inlineStr">
         <is>
@@ -2744,7 +2744,7 @@
         </is>
       </c>
       <c r="Y18">
-        <v>33.85953601463174</v>
+        <v>47.44515231679881</v>
       </c>
       <c r="Z18">
         <v>0</v>
@@ -2755,13 +2755,13 @@
         <v>0.17</v>
       </c>
       <c r="B19">
-        <v>0.09597272834316586</v>
+        <v>0.09372088823363996</v>
       </c>
       <c r="C19">
-        <v>1679.416557078269</v>
+        <v>1678.527677964005</v>
       </c>
       <c r="D19">
-        <v>1297.266057078269</v>
+        <v>1296.377177964005</v>
       </c>
       <c r="E19">
         <v>336.1995000000001</v>
@@ -2788,37 +2788,37 @@
         <v>244.4</v>
       </c>
       <c r="M19">
-        <v>7.669183650000002</v>
+        <v>5.4731619</v>
       </c>
       <c r="N19">
-        <v>236.73081635</v>
+        <v>238.9268381</v>
       </c>
       <c r="O19">
-        <v>52.080779597</v>
+        <v>52.563904382</v>
       </c>
       <c r="P19">
-        <v>184.650036753</v>
+        <v>186.362933718</v>
       </c>
       <c r="Q19">
-        <v>216.150036753</v>
+        <v>217.862933718</v>
       </c>
       <c r="R19">
         <v>0.2048192771084338</v>
       </c>
       <c r="S19">
-        <v>0.1120032630640553</v>
+        <v>0.1103286364260722</v>
       </c>
       <c r="T19">
         <v>1.005286117086871</v>
       </c>
       <c r="U19">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V19">
         <v>0.22</v>
       </c>
       <c r="W19">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X19" t="inlineStr">
         <is>
@@ -2826,7 +2826,7 @@
         </is>
       </c>
       <c r="Y19">
-        <v>31.86779860200635</v>
+        <v>44.65426100404594</v>
       </c>
       <c r="Z19">
         <v>0</v>
@@ -2837,13 +2837,13 @@
         <v>0.18</v>
       </c>
       <c r="B20">
-        <v>0.09580929597005662</v>
+        <v>0.09356260238893394</v>
       </c>
       <c r="C20">
-        <v>1661.33404435819</v>
+        <v>1660.39001337741</v>
       </c>
       <c r="D20">
-        <v>1299.05704435819</v>
+        <v>1298.11301337741</v>
       </c>
       <c r="E20">
         <v>356.073</v>
@@ -2870,37 +2870,37 @@
         <v>244.4</v>
       </c>
       <c r="M20">
-        <v>8.120312100000001</v>
+        <v>5.7951126</v>
       </c>
       <c r="N20">
-        <v>236.2796879</v>
+        <v>238.6048874</v>
       </c>
       <c r="O20">
-        <v>51.981531338</v>
+        <v>52.493075228</v>
       </c>
       <c r="P20">
-        <v>184.298156562</v>
+        <v>186.111812172</v>
       </c>
       <c r="Q20">
-        <v>215.798156562</v>
+        <v>217.611812172</v>
       </c>
       <c r="R20">
         <v>0.2195121951219512</v>
       </c>
       <c r="S20">
-        <v>0.1129539219147032</v>
+        <v>0.1113269785230902</v>
       </c>
       <c r="T20">
         <v>1.01522012674729</v>
       </c>
       <c r="U20">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V20">
         <v>0.22</v>
       </c>
       <c r="W20">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X20" t="inlineStr">
         <is>
@@ -2908,7 +2908,7 @@
         </is>
       </c>
       <c r="Y20">
-        <v>30.09736534633933</v>
+        <v>42.1734687260434</v>
       </c>
       <c r="Z20">
         <v>0</v>
@@ -2919,13 +2919,13 @@
         <v>0.19</v>
       </c>
       <c r="B21">
-        <v>0.09564586359694736</v>
+        <v>0.09340431654422793</v>
       </c>
       <c r="C21">
-        <v>1643.256483698574</v>
+        <v>1642.257003554235</v>
       </c>
       <c r="D21">
-        <v>1300.852983698574</v>
+        <v>1299.853503554235</v>
       </c>
       <c r="E21">
         <v>375.9465000000001</v>
@@ -2952,37 +2952,37 @@
         <v>244.4</v>
       </c>
       <c r="M21">
-        <v>8.571440550000002</v>
+        <v>6.117063300000001</v>
       </c>
       <c r="N21">
-        <v>235.82855945</v>
+        <v>238.2829367</v>
       </c>
       <c r="O21">
-        <v>51.882283079</v>
+        <v>52.422246074</v>
       </c>
       <c r="P21">
-        <v>183.946276371</v>
+        <v>185.860690626</v>
       </c>
       <c r="Q21">
-        <v>215.446276371</v>
+        <v>217.360690626</v>
       </c>
       <c r="R21">
         <v>0.2345679012345679</v>
       </c>
       <c r="S21">
-        <v>0.1139280538233918</v>
+        <v>0.1123499710422567</v>
       </c>
       <c r="T21">
         <v>1.025399420596854</v>
       </c>
       <c r="U21">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V21">
         <v>0.22</v>
       </c>
       <c r="W21">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X21" t="inlineStr">
         <is>
@@ -2990,7 +2990,7 @@
         </is>
       </c>
       <c r="Y21">
-        <v>28.51329348600568</v>
+        <v>39.95381247730426</v>
       </c>
       <c r="Z21">
         <v>0</v>
@@ -3001,13 +3001,13 @@
         <v>0.2</v>
       </c>
       <c r="B22">
-        <v>0.09548243122383811</v>
+        <v>0.09324603069952192</v>
       </c>
       <c r="C22">
-        <v>1625.183895666445</v>
+        <v>1624.128667242727</v>
       </c>
       <c r="D22">
-        <v>1302.653895666445</v>
+        <v>1301.598667242727</v>
       </c>
       <c r="E22">
         <v>395.8200000000001</v>
@@ -3034,37 +3034,37 @@
         <v>244.4</v>
       </c>
       <c r="M22">
-        <v>9.022569000000001</v>
+        <v>6.439014</v>
       </c>
       <c r="N22">
-        <v>235.377431</v>
+        <v>237.960986</v>
       </c>
       <c r="O22">
-        <v>51.78303482</v>
+        <v>52.35141692</v>
       </c>
       <c r="P22">
-        <v>183.59439618</v>
+        <v>185.60956908</v>
       </c>
       <c r="Q22">
-        <v>215.09439618</v>
+        <v>217.10956908</v>
       </c>
       <c r="R22">
         <v>0.25</v>
       </c>
       <c r="S22">
-        <v>0.1149265390297976</v>
+        <v>0.1133985383744024</v>
       </c>
       <c r="T22">
         <v>1.035833196792658</v>
       </c>
       <c r="U22">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V22">
         <v>0.22</v>
       </c>
       <c r="W22">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X22" t="inlineStr">
         <is>
@@ -3072,7 +3072,7 @@
         </is>
       </c>
       <c r="Y22">
-        <v>27.0876288117054</v>
+        <v>37.95612185343905</v>
       </c>
       <c r="Z22">
         <v>0</v>
@@ -3083,13 +3083,13 @@
         <v>0.21</v>
       </c>
       <c r="B23">
-        <v>0.09531899885072885</v>
+        <v>0.0930877448548159</v>
       </c>
       <c r="C23">
-        <v>1607.116300942878</v>
+        <v>1606.005023291951</v>
       </c>
       <c r="D23">
-        <v>1304.459800942878</v>
+        <v>1303.348523291951</v>
       </c>
       <c r="E23">
         <v>415.6935</v>
@@ -3116,37 +3116,37 @@
         <v>244.4</v>
       </c>
       <c r="M23">
-        <v>9.473697450000001</v>
+        <v>6.7609647</v>
       </c>
       <c r="N23">
-        <v>234.92630255</v>
+        <v>237.6390353</v>
       </c>
       <c r="O23">
-        <v>51.683786561</v>
+        <v>52.280587766</v>
       </c>
       <c r="P23">
-        <v>183.242515989</v>
+        <v>185.358447534</v>
       </c>
       <c r="Q23">
-        <v>214.742515989</v>
+        <v>216.858447534</v>
       </c>
       <c r="R23">
         <v>0.2658227848101266</v>
       </c>
       <c r="S23">
-        <v>0.1159503023426947</v>
+        <v>0.1144736517149568</v>
       </c>
       <c r="T23">
         <v>1.046531119221267</v>
       </c>
       <c r="U23">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V23">
         <v>0.22</v>
       </c>
       <c r="W23">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X23" t="inlineStr">
         <is>
@@ -3154,7 +3154,7 @@
         </is>
       </c>
       <c r="Y23">
-        <v>25.79774172543371</v>
+        <v>36.14868747946576</v>
       </c>
       <c r="Z23">
         <v>0</v>
@@ -3165,13 +3165,13 @@
         <v>0.22</v>
       </c>
       <c r="B24">
-        <v>0.09515556647761961</v>
+        <v>0.09292945901010989</v>
       </c>
       <c r="C24">
-        <v>1589.053720323789</v>
+        <v>1587.886090652469</v>
       </c>
       <c r="D24">
-        <v>1306.270720323789</v>
+        <v>1305.10309065247</v>
       </c>
       <c r="E24">
         <v>435.5670000000001</v>
@@ -3198,37 +3198,37 @@
         <v>244.4</v>
       </c>
       <c r="M24">
-        <v>9.924825900000002</v>
+        <v>7.0829154</v>
       </c>
       <c r="N24">
-        <v>234.4751741</v>
+        <v>237.3170846</v>
       </c>
       <c r="O24">
-        <v>51.584538302</v>
+        <v>52.209758612</v>
       </c>
       <c r="P24">
-        <v>182.890635798</v>
+        <v>185.107325988</v>
       </c>
       <c r="Q24">
-        <v>214.390635798</v>
+        <v>216.607325988</v>
       </c>
       <c r="R24">
         <v>0.282051282051282</v>
       </c>
       <c r="S24">
-        <v>0.1170003159969482</v>
+        <v>0.1155763320642434</v>
       </c>
       <c r="T24">
         <v>1.057503347353174</v>
       </c>
       <c r="U24">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V24">
         <v>0.22</v>
       </c>
       <c r="W24">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X24" t="inlineStr">
         <is>
@@ -3236,7 +3236,7 @@
         </is>
       </c>
       <c r="Y24">
-        <v>24.62511710155036</v>
+        <v>34.50556532130823</v>
       </c>
       <c r="Z24">
         <v>0</v>
@@ -3247,13 +3247,13 @@
         <v>0.23</v>
       </c>
       <c r="B25">
-        <v>0.09499213410451036</v>
+        <v>0.09277117316540387</v>
       </c>
       <c r="C25">
-        <v>1570.996174720737</v>
+        <v>1569.771888377029</v>
       </c>
       <c r="D25">
-        <v>1308.086674720737</v>
+        <v>1306.862388377029</v>
       </c>
       <c r="E25">
         <v>455.4405000000001</v>
@@ -3280,37 +3280,37 @@
         <v>244.4</v>
       </c>
       <c r="M25">
-        <v>10.37595435</v>
+        <v>7.4048661</v>
       </c>
       <c r="N25">
-        <v>234.02404565</v>
+        <v>236.9951339</v>
       </c>
       <c r="O25">
-        <v>51.485290043</v>
+        <v>52.138929458</v>
       </c>
       <c r="P25">
-        <v>182.538755607</v>
+        <v>184.856204442</v>
       </c>
       <c r="Q25">
-        <v>214.038755607</v>
+        <v>216.356204442</v>
       </c>
       <c r="R25">
         <v>0.2987012987012987</v>
       </c>
       <c r="S25">
-        <v>0.1180776027331303</v>
+        <v>0.1167076534615635</v>
       </c>
       <c r="T25">
         <v>1.068760568423572</v>
       </c>
       <c r="U25">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V25">
         <v>0.22</v>
       </c>
       <c r="W25">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X25" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
         </is>
       </c>
       <c r="Y25">
-        <v>23.55445983626556</v>
+        <v>33.00532335081657</v>
       </c>
       <c r="Z25">
         <v>0</v>
@@ -3329,13 +3329,13 @@
         <v>0.24</v>
       </c>
       <c r="B26">
-        <v>0.09482870173140109</v>
+        <v>0.09261288732069786</v>
       </c>
       <c r="C26">
-        <v>1552.943685161724</v>
+        <v>1551.662435621248</v>
       </c>
       <c r="D26">
-        <v>1309.907685161724</v>
+        <v>1308.626435621248</v>
       </c>
       <c r="E26">
         <v>475.314</v>
@@ -3362,37 +3362,37 @@
         <v>244.4</v>
       </c>
       <c r="M26">
-        <v>10.8270828</v>
+        <v>7.7268168</v>
       </c>
       <c r="N26">
-        <v>233.5729172</v>
+        <v>236.6731832</v>
       </c>
       <c r="O26">
-        <v>51.386041784</v>
+        <v>52.068100304</v>
       </c>
       <c r="P26">
-        <v>182.186875416</v>
+        <v>184.605082896</v>
       </c>
       <c r="Q26">
-        <v>213.686875416</v>
+        <v>216.105082896</v>
       </c>
       <c r="R26">
         <v>0.3157894736842105</v>
       </c>
       <c r="S26">
-        <v>0.1191832391202646</v>
+        <v>0.1178687464746025</v>
       </c>
       <c r="T26">
         <v>1.080314032153717</v>
       </c>
       <c r="U26">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V26">
         <v>0.22</v>
       </c>
       <c r="W26">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X26" t="inlineStr">
         <is>
@@ -3400,7 +3400,7 @@
         </is>
       </c>
       <c r="Y26">
-        <v>22.5730240097545</v>
+        <v>31.63010154453254</v>
       </c>
       <c r="Z26">
         <v>0</v>
@@ -3411,13 +3411,13 @@
         <v>0.25</v>
       </c>
       <c r="B27">
-        <v>0.09466526935829186</v>
+        <v>0.09245460147599185</v>
       </c>
       <c r="C27">
-        <v>1534.89627279201</v>
+        <v>1533.557751644312</v>
       </c>
       <c r="D27">
-        <v>1311.73377279201</v>
+        <v>1310.395251644312</v>
       </c>
       <c r="E27">
         <v>495.1875000000001</v>
@@ -3444,37 +3444,37 @@
         <v>244.4</v>
       </c>
       <c r="M27">
-        <v>11.27821125</v>
+        <v>8.0487675</v>
       </c>
       <c r="N27">
-        <v>233.12178875</v>
+        <v>236.3512325</v>
       </c>
       <c r="O27">
-        <v>51.286793525</v>
+        <v>51.99727115</v>
       </c>
       <c r="P27">
-        <v>181.834995225</v>
+        <v>184.35396135</v>
       </c>
       <c r="Q27">
-        <v>213.334995225</v>
+        <v>215.85396135</v>
       </c>
       <c r="R27">
         <v>0.3333333333333333</v>
       </c>
       <c r="S27">
-        <v>0.1203183591443892</v>
+        <v>0.1190608019679891</v>
       </c>
       <c r="T27">
         <v>1.09217558825</v>
       </c>
       <c r="U27">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V27">
         <v>0.22</v>
       </c>
       <c r="W27">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X27" t="inlineStr">
         <is>
@@ -3482,7 +3482,7 @@
         </is>
       </c>
       <c r="Y27">
-        <v>21.67010304936432</v>
+        <v>30.36489748275124</v>
       </c>
       <c r="Z27">
         <v>0</v>
@@ -3493,13 +3493,13 @@
         <v>0.26</v>
       </c>
       <c r="B28">
-        <v>0.09450183698518261</v>
+        <v>0.09229631563128585</v>
       </c>
       <c r="C28">
-        <v>1516.85395887493</v>
+        <v>1515.457855809674</v>
       </c>
       <c r="D28">
-        <v>1313.56495887493</v>
+        <v>1312.168855809674</v>
       </c>
       <c r="E28">
         <v>515.061</v>
@@ -3526,37 +3526,37 @@
         <v>244.4</v>
       </c>
       <c r="M28">
-        <v>11.7293397</v>
+        <v>8.370718199999999</v>
       </c>
       <c r="N28">
-        <v>232.6706603</v>
+        <v>236.0292818</v>
       </c>
       <c r="O28">
-        <v>51.187545266</v>
+        <v>51.926441996</v>
       </c>
       <c r="P28">
-        <v>181.483115034</v>
+        <v>184.102839804</v>
       </c>
       <c r="Q28">
-        <v>212.983115034</v>
+        <v>215.602839804</v>
       </c>
       <c r="R28">
         <v>0.3513513513513514</v>
       </c>
       <c r="S28">
-        <v>0.1214841580880846</v>
+        <v>0.1202850751774133</v>
       </c>
       <c r="T28">
         <v>1.104357726943479</v>
       </c>
       <c r="U28">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V28">
         <v>0.22</v>
       </c>
       <c r="W28">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X28" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         </is>
       </c>
       <c r="Y28">
-        <v>20.8366375474657</v>
+        <v>29.19701681033774</v>
       </c>
       <c r="Z28">
         <v>0</v>
@@ -3575,13 +3575,13 @@
         <v>0.27</v>
       </c>
       <c r="B29">
-        <v>0.09433840461207334</v>
+        <v>0.09213802978657984</v>
       </c>
       <c r="C29">
-        <v>1498.816764792722</v>
+        <v>1497.362767585764</v>
       </c>
       <c r="D29">
-        <v>1315.401264792722</v>
+        <v>1313.947267585764</v>
       </c>
       <c r="E29">
         <v>534.9345000000001</v>
@@ -3608,37 +3608,37 @@
         <v>244.4</v>
       </c>
       <c r="M29">
-        <v>12.18046815</v>
+        <v>8.692668900000001</v>
       </c>
       <c r="N29">
-        <v>232.21953185</v>
+        <v>235.7073311</v>
       </c>
       <c r="O29">
-        <v>51.088297007</v>
+        <v>51.855612842</v>
       </c>
       <c r="P29">
-        <v>181.131234843</v>
+        <v>183.851718258</v>
       </c>
       <c r="Q29">
-        <v>212.631234843</v>
+        <v>215.351718258</v>
       </c>
       <c r="R29">
         <v>0.3698630136986302</v>
       </c>
       <c r="S29">
-        <v>0.1226818967288676</v>
+        <v>0.1215428901186025</v>
       </c>
       <c r="T29">
         <v>1.116873622861437</v>
       </c>
       <c r="U29">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V29">
         <v>0.22</v>
       </c>
       <c r="W29">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X29" t="inlineStr">
         <is>
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="Y29">
-        <v>20.06491023089289</v>
+        <v>28.11564581736226</v>
       </c>
       <c r="Z29">
         <v>0</v>
@@ -3657,13 +3657,13 @@
         <v>0.28</v>
       </c>
       <c r="B30">
-        <v>0.09417497223896409</v>
+        <v>0.09197974394187382</v>
       </c>
       <c r="C30">
-        <v>1480.784712047352</v>
+        <v>1479.272506546698</v>
       </c>
       <c r="D30">
-        <v>1317.242712047352</v>
+        <v>1315.730506546698</v>
       </c>
       <c r="E30">
         <v>554.8080000000001</v>
@@ -3690,37 +3690,37 @@
         <v>244.4</v>
       </c>
       <c r="M30">
-        <v>12.6315966</v>
+        <v>9.014619600000001</v>
       </c>
       <c r="N30">
-        <v>231.7684034</v>
+        <v>235.3853804</v>
       </c>
       <c r="O30">
-        <v>50.989048748</v>
+        <v>51.784783688</v>
       </c>
       <c r="P30">
-        <v>180.779354652</v>
+        <v>183.600596712</v>
       </c>
       <c r="Q30">
-        <v>212.279354652</v>
+        <v>215.100596712</v>
       </c>
       <c r="R30">
         <v>0.388888888888889</v>
       </c>
       <c r="S30">
-        <v>0.1239129058874501</v>
+        <v>0.1228356443637136</v>
       </c>
       <c r="T30">
         <v>1.129737182554894</v>
       </c>
       <c r="U30">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V30">
         <v>0.22</v>
       </c>
       <c r="W30">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X30" t="inlineStr">
         <is>
@@ -3728,7 +3728,7 @@
         </is>
       </c>
       <c r="Y30">
-        <v>19.34830629407528</v>
+        <v>27.11151560959932</v>
       </c>
       <c r="Z30">
         <v>0</v>
@@ -3739,13 +3739,13 @@
         <v>0.29</v>
       </c>
       <c r="B31">
-        <v>0.09401153986585487</v>
+        <v>0.09182145809716781</v>
       </c>
       <c r="C31">
-        <v>1462.757822261365</v>
+        <v>1461.187092372997</v>
       </c>
       <c r="D31">
-        <v>1319.089322261365</v>
+        <v>1317.518592372997</v>
       </c>
       <c r="E31">
         <v>574.6815</v>
@@ -3772,37 +3772,37 @@
         <v>244.4</v>
       </c>
       <c r="M31">
-        <v>13.08272505</v>
+        <v>9.3365703</v>
       </c>
       <c r="N31">
-        <v>231.31727495</v>
+        <v>235.0634297</v>
       </c>
       <c r="O31">
-        <v>50.889800489</v>
+        <v>51.713954534</v>
       </c>
       <c r="P31">
-        <v>180.427474461</v>
+        <v>183.349475166</v>
       </c>
       <c r="Q31">
-        <v>211.927474461</v>
+        <v>214.849475166</v>
       </c>
       <c r="R31">
         <v>0.4084507042253521</v>
       </c>
       <c r="S31">
-        <v>0.125178591360359</v>
+        <v>0.1241648142213631</v>
       </c>
       <c r="T31">
         <v>1.142963096042533</v>
       </c>
       <c r="U31">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V31">
         <v>0.22</v>
       </c>
       <c r="W31">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X31" t="inlineStr">
         <is>
@@ -3810,7 +3810,7 @@
         </is>
       </c>
       <c r="Y31">
-        <v>18.68112331841752</v>
+        <v>26.17663576099245</v>
       </c>
       <c r="Z31">
         <v>0</v>
@@ -3821,13 +3821,13 @@
         <v>0.3</v>
       </c>
       <c r="B32">
-        <v>0.09384810749274559</v>
+        <v>0.09166317225246177</v>
       </c>
       <c r="C32">
-        <v>1444.736117178719</v>
+        <v>1443.106544852312</v>
       </c>
       <c r="D32">
-        <v>1320.941117178719</v>
+        <v>1319.311544852312</v>
       </c>
       <c r="E32">
         <v>594.5550000000001</v>
@@ -3854,37 +3854,37 @@
         <v>244.4</v>
       </c>
       <c r="M32">
-        <v>13.5338535</v>
+        <v>9.658521</v>
       </c>
       <c r="N32">
-        <v>230.8661465</v>
+        <v>234.741479</v>
       </c>
       <c r="O32">
-        <v>50.79055223</v>
+        <v>51.64312538</v>
       </c>
       <c r="P32">
-        <v>180.07559427</v>
+        <v>183.09835362</v>
       </c>
       <c r="Q32">
-        <v>211.57559427</v>
+        <v>214.59835362</v>
       </c>
       <c r="R32">
         <v>0.4285714285714286</v>
       </c>
       <c r="S32">
-        <v>0.1264804392753509</v>
+        <v>0.1255319603606597</v>
       </c>
       <c r="T32">
         <v>1.156566892772675</v>
       </c>
       <c r="U32">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V32">
         <v>0.22</v>
       </c>
       <c r="W32">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X32" t="inlineStr">
         <is>
@@ -3892,7 +3892,7 @@
         </is>
       </c>
       <c r="Y32">
-        <v>18.0584192078036</v>
+        <v>25.30408123562603</v>
       </c>
       <c r="Z32">
         <v>0</v>
@@ -3903,13 +3903,13 @@
         <v>0.31</v>
       </c>
       <c r="B33">
-        <v>0.09368467511963635</v>
+        <v>0.09150488640775577</v>
       </c>
       <c r="C33">
-        <v>1426.719618665648</v>
+        <v>1425.030883880152</v>
       </c>
       <c r="D33">
-        <v>1322.798118665648</v>
+        <v>1321.109383880152</v>
       </c>
       <c r="E33">
         <v>614.4285000000001</v>
@@ -3936,37 +3936,37 @@
         <v>244.4</v>
       </c>
       <c r="M33">
-        <v>13.98498195</v>
+        <v>9.980471700000001</v>
       </c>
       <c r="N33">
-        <v>230.41501805</v>
+        <v>234.4195283</v>
       </c>
       <c r="O33">
-        <v>50.691303971</v>
+        <v>51.572296226</v>
       </c>
       <c r="P33">
-        <v>179.723714079</v>
+        <v>182.847232074</v>
       </c>
       <c r="Q33">
-        <v>211.223714079</v>
+        <v>214.347232074</v>
       </c>
       <c r="R33">
         <v>0.4492753623188406</v>
       </c>
       <c r="S33">
-        <v>0.1278200219125165</v>
+        <v>0.1269387339242837</v>
       </c>
       <c r="T33">
         <v>1.170565002451518</v>
       </c>
       <c r="U33">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V33">
         <v>0.22</v>
       </c>
       <c r="W33">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X33" t="inlineStr">
         <is>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="Y33">
-        <v>17.47588955593897</v>
+        <v>24.48782055060584</v>
       </c>
       <c r="Z33">
         <v>0</v>
@@ -3985,13 +3985,13 @@
         <v>0.32</v>
       </c>
       <c r="B34">
-        <v>0.09352124274652709</v>
+        <v>0.09134660056304975</v>
       </c>
       <c r="C34">
-        <v>1408.708348711516</v>
+        <v>1406.960129460624</v>
       </c>
       <c r="D34">
-        <v>1324.660348711516</v>
+        <v>1322.912129460624</v>
       </c>
       <c r="E34">
         <v>634.3020000000001</v>
@@ -4018,37 +4018,37 @@
         <v>244.4</v>
       </c>
       <c r="M34">
-        <v>14.4361104</v>
+        <v>10.3024224</v>
       </c>
       <c r="N34">
-        <v>229.9638896</v>
+        <v>234.0975776</v>
       </c>
       <c r="O34">
-        <v>50.592055712</v>
+        <v>51.501467072</v>
       </c>
       <c r="P34">
-        <v>179.371833888</v>
+        <v>182.596110528</v>
       </c>
       <c r="Q34">
-        <v>210.871833888</v>
+        <v>214.096110528</v>
       </c>
       <c r="R34">
         <v>0.4705882352941177</v>
       </c>
       <c r="S34">
-        <v>0.1291990040390104</v>
+        <v>0.1283868831809555</v>
       </c>
       <c r="T34">
         <v>1.184974821238562</v>
       </c>
       <c r="U34">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V34">
         <v>0.22</v>
       </c>
       <c r="W34">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X34" t="inlineStr">
         <is>
@@ -4056,7 +4056,7 @@
         </is>
       </c>
       <c r="Y34">
-        <v>16.92976800731587</v>
+        <v>23.72257615839941</v>
       </c>
       <c r="Z34">
         <v>0</v>
@@ -4067,13 +4067,13 @@
         <v>0.33</v>
       </c>
       <c r="B35">
-        <v>0.09335781037341784</v>
+        <v>0.09118831471834372</v>
       </c>
       <c r="C35">
-        <v>1390.702329429689</v>
+        <v>1388.89430170717</v>
       </c>
       <c r="D35">
-        <v>1326.527829429689</v>
+        <v>1324.71980170717</v>
       </c>
       <c r="E35">
         <v>654.1755000000001</v>
@@ -4100,37 +4100,37 @@
         <v>244.4</v>
       </c>
       <c r="M35">
-        <v>14.88723885</v>
+        <v>10.6243731</v>
       </c>
       <c r="N35">
-        <v>229.51276115</v>
+        <v>233.7756269</v>
       </c>
       <c r="O35">
-        <v>50.492807453</v>
+        <v>51.430637918</v>
       </c>
       <c r="P35">
-        <v>179.019953697</v>
+        <v>182.344988982</v>
       </c>
       <c r="Q35">
-        <v>210.519953697</v>
+        <v>213.844988982</v>
       </c>
       <c r="R35">
         <v>0.4925373134328359</v>
       </c>
       <c r="S35">
-        <v>0.1306191498110714</v>
+        <v>0.1298782607736474</v>
       </c>
       <c r="T35">
         <v>1.199814783869995</v>
       </c>
       <c r="U35">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V35">
         <v>0.22</v>
       </c>
       <c r="W35">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X35" t="inlineStr">
         <is>
@@ -4138,7 +4138,7 @@
         </is>
       </c>
       <c r="Y35">
-        <v>16.41674473436691</v>
+        <v>23.00371021420549</v>
       </c>
       <c r="Z35">
         <v>0</v>
@@ -4149,13 +4149,13 @@
         <v>0.34</v>
       </c>
       <c r="B36">
-        <v>0.09319437800030861</v>
+        <v>0.09103002887363773</v>
       </c>
       <c r="C36">
-        <v>1372.701583058409</v>
+        <v>1370.833420843317</v>
       </c>
       <c r="D36">
-        <v>1328.400583058409</v>
+        <v>1326.532420843317</v>
       </c>
       <c r="E36">
         <v>674.0490000000001</v>
@@ -4182,37 +4182,37 @@
         <v>244.4</v>
       </c>
       <c r="M36">
-        <v>15.3383673</v>
+        <v>10.9463238</v>
       </c>
       <c r="N36">
-        <v>229.0616327</v>
+        <v>233.4536762</v>
       </c>
       <c r="O36">
-        <v>50.393559194</v>
+        <v>51.35980876400001</v>
       </c>
       <c r="P36">
-        <v>178.668073506</v>
+        <v>182.093867436</v>
       </c>
       <c r="Q36">
-        <v>210.168073506</v>
+        <v>213.593867436</v>
       </c>
       <c r="R36">
         <v>0.5151515151515152</v>
       </c>
       <c r="S36">
-        <v>0.1320823303034979</v>
+        <v>0.1314148316267238</v>
       </c>
       <c r="T36">
         <v>1.215104442338744</v>
       </c>
       <c r="U36">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V36">
         <v>0.22</v>
       </c>
       <c r="W36">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X36" t="inlineStr">
         <is>
@@ -4220,7 +4220,7 @@
         </is>
       </c>
       <c r="Y36">
-        <v>15.93389930100317</v>
+        <v>22.32713050202297</v>
       </c>
       <c r="Z36">
         <v>0</v>
@@ -4231,13 +4231,13 @@
         <v>0.35</v>
       </c>
       <c r="B37">
-        <v>0.09303094562719935</v>
+        <v>0.09087174302893172</v>
       </c>
       <c r="C37">
-        <v>1354.706131961678</v>
+        <v>1352.777507203432</v>
       </c>
       <c r="D37">
-        <v>1330.278631961678</v>
+        <v>1328.350007203433</v>
       </c>
       <c r="E37">
         <v>693.9225000000001</v>
@@ -4264,37 +4264,37 @@
         <v>244.4</v>
       </c>
       <c r="M37">
-        <v>15.78949575</v>
+        <v>11.2682745</v>
       </c>
       <c r="N37">
-        <v>228.61050425</v>
+        <v>233.1317255</v>
       </c>
       <c r="O37">
-        <v>50.294310935</v>
+        <v>51.28897961000001</v>
       </c>
       <c r="P37">
-        <v>178.316193315</v>
+        <v>181.84274589</v>
       </c>
       <c r="Q37">
-        <v>209.816193315</v>
+        <v>213.34274589</v>
       </c>
       <c r="R37">
         <v>0.5384615384615385</v>
       </c>
       <c r="S37">
-        <v>0.1335905317341529</v>
+        <v>0.1329986815829719</v>
       </c>
       <c r="T37">
         <v>1.230864551837301</v>
       </c>
       <c r="U37">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V37">
         <v>0.22</v>
       </c>
       <c r="W37">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X37" t="inlineStr">
         <is>
@@ -4302,7 +4302,7 @@
         </is>
       </c>
       <c r="Y37">
-        <v>15.47864503526023</v>
+        <v>21.68921248767946</v>
       </c>
       <c r="Z37">
         <v>0</v>
@@ -4313,13 +4313,13 @@
         <v>0.36</v>
       </c>
       <c r="B38">
-        <v>0.09286751325409009</v>
+        <v>0.09071345718422572</v>
       </c>
       <c r="C38">
-        <v>1336.715998630144</v>
+        <v>1334.726581233484</v>
       </c>
       <c r="D38">
-        <v>1332.161998630144</v>
+        <v>1330.172581233484</v>
       </c>
       <c r="E38">
         <v>713.796</v>
@@ -4346,37 +4346,37 @@
         <v>244.4</v>
       </c>
       <c r="M38">
-        <v>16.2406242</v>
+        <v>11.5902252</v>
       </c>
       <c r="N38">
-        <v>228.1593758</v>
+        <v>232.8097748</v>
       </c>
       <c r="O38">
-        <v>50.195062676</v>
+        <v>51.218150456</v>
       </c>
       <c r="P38">
-        <v>177.964313124</v>
+        <v>181.591624344</v>
       </c>
       <c r="Q38">
-        <v>209.464313124</v>
+        <v>213.091624344</v>
       </c>
       <c r="R38">
         <v>0.5625</v>
       </c>
       <c r="S38">
-        <v>0.1351458644595158</v>
+        <v>0.1346320268503527</v>
       </c>
       <c r="T38">
         <v>1.247117164757688</v>
       </c>
       <c r="U38">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V38">
         <v>0.22</v>
       </c>
       <c r="W38">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X38" t="inlineStr">
         <is>
@@ -4384,7 +4384,7 @@
         </is>
       </c>
       <c r="Y38">
-        <v>15.04868267316967</v>
+        <v>21.0867343630217</v>
       </c>
       <c r="Z38">
         <v>0</v>
@@ -4395,13 +4395,13 @@
         <v>0.37</v>
       </c>
       <c r="B39">
-        <v>0.09270408088098084</v>
+        <v>0.09055517133951971</v>
       </c>
       <c r="C39">
-        <v>1318.731205682005</v>
+        <v>1316.680663491803</v>
       </c>
       <c r="D39">
-        <v>1334.050705682005</v>
+        <v>1332.000163491804</v>
       </c>
       <c r="E39">
         <v>733.6695000000001</v>
@@ -4428,37 +4428,37 @@
         <v>244.4</v>
       </c>
       <c r="M39">
-        <v>16.69175265</v>
+        <v>11.9121759</v>
       </c>
       <c r="N39">
-        <v>227.70824735</v>
+        <v>232.4878241</v>
       </c>
       <c r="O39">
-        <v>50.095814417</v>
+        <v>51.147321302</v>
       </c>
       <c r="P39">
-        <v>177.612432933</v>
+        <v>181.340502798</v>
       </c>
       <c r="Q39">
-        <v>209.112432933</v>
+        <v>212.840502798</v>
       </c>
       <c r="R39">
         <v>0.5873015873015873</v>
       </c>
       <c r="S39">
-        <v>0.1367505728269537</v>
+        <v>0.136317224348444</v>
       </c>
       <c r="T39">
         <v>1.263885733643802</v>
       </c>
       <c r="U39">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V39">
         <v>0.22</v>
       </c>
       <c r="W39">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X39" t="inlineStr">
         <is>
@@ -4466,7 +4466,7 @@
         </is>
       </c>
       <c r="Y39">
-        <v>14.64196151984076</v>
+        <v>20.51682262348057</v>
       </c>
       <c r="Z39">
         <v>0</v>
@@ -4477,13 +4477,13 @@
         <v>0.38</v>
       </c>
       <c r="B40">
-        <v>0.0925406485078716</v>
+        <v>0.09039688549481369</v>
       </c>
       <c r="C40">
-        <v>1300.751775863908</v>
+        <v>1298.639774649865</v>
       </c>
       <c r="D40">
-        <v>1335.944775863908</v>
+        <v>1333.832774649865</v>
       </c>
       <c r="E40">
         <v>753.5430000000001</v>
@@ -4510,37 +4510,37 @@
         <v>244.4</v>
       </c>
       <c r="M40">
-        <v>17.1428811</v>
+        <v>12.2341266</v>
       </c>
       <c r="N40">
-        <v>227.2571189</v>
+        <v>232.1658734</v>
       </c>
       <c r="O40">
-        <v>49.996566158</v>
+        <v>51.076492148</v>
       </c>
       <c r="P40">
-        <v>177.260552742</v>
+        <v>181.089381252</v>
       </c>
       <c r="Q40">
-        <v>208.760552742</v>
+        <v>212.589381252</v>
       </c>
       <c r="R40">
         <v>0.6129032258064516</v>
       </c>
       <c r="S40">
-        <v>0.138407045980438</v>
+        <v>0.1380567830561511</v>
       </c>
       <c r="T40">
         <v>1.281195224106886</v>
       </c>
       <c r="U40">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V40">
         <v>0.22</v>
       </c>
       <c r="W40">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X40" t="inlineStr">
         <is>
@@ -4548,7 +4548,7 @@
         </is>
       </c>
       <c r="Y40">
-        <v>14.25664674300284</v>
+        <v>19.97690623865213</v>
       </c>
       <c r="Z40">
         <v>0</v>
@@ -4559,13 +4559,13 @@
         <v>0.39</v>
       </c>
       <c r="B41">
-        <v>0.09237721613476234</v>
+        <v>0.09023859965010766</v>
       </c>
       <c r="C41">
-        <v>1282.777732051869</v>
+        <v>1280.603935493059</v>
       </c>
       <c r="D41">
-        <v>1337.844232051869</v>
+        <v>1335.670435493059</v>
       </c>
       <c r="E41">
         <v>773.4165000000002</v>
@@ -4592,37 +4592,37 @@
         <v>244.4</v>
       </c>
       <c r="M41">
-        <v>17.59400955</v>
+        <v>12.5560773</v>
       </c>
       <c r="N41">
-        <v>226.80599045</v>
+        <v>231.8439227</v>
       </c>
       <c r="O41">
-        <v>49.897317899</v>
+        <v>51.00566299400001</v>
       </c>
       <c r="P41">
-        <v>176.908672551</v>
+        <v>180.838259706</v>
       </c>
       <c r="Q41">
-        <v>208.408672551</v>
+        <v>212.338259706</v>
       </c>
       <c r="R41">
         <v>0.639344262295082</v>
       </c>
       <c r="S41">
-        <v>0.1401178297291186</v>
+        <v>0.1398533764755863</v>
       </c>
       <c r="T41">
         <v>1.29907223884745</v>
       </c>
       <c r="U41">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V41">
         <v>0.22</v>
       </c>
       <c r="W41">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X41" t="inlineStr">
         <is>
@@ -4630,7 +4630,7 @@
         </is>
       </c>
       <c r="Y41">
-        <v>13.89109169831046</v>
+        <v>19.46467787355849</v>
       </c>
       <c r="Z41">
         <v>0</v>
@@ -4641,13 +4641,13 @@
         <v>0.4</v>
       </c>
       <c r="B42">
-        <v>0.0922137837616531</v>
+        <v>0.09008031380540167</v>
       </c>
       <c r="C42">
-        <v>1264.809097252187</v>
+        <v>1262.573166921482</v>
       </c>
       <c r="D42">
-        <v>1339.749097252188</v>
+        <v>1337.513166921482</v>
       </c>
       <c r="E42">
         <v>793.2900000000001</v>
@@ -4674,37 +4674,37 @@
         <v>244.4</v>
       </c>
       <c r="M42">
-        <v>18.045138</v>
+        <v>12.878028</v>
       </c>
       <c r="N42">
-        <v>226.354862</v>
+        <v>231.521972</v>
       </c>
       <c r="O42">
-        <v>49.79806964</v>
+        <v>50.93483384</v>
       </c>
       <c r="P42">
-        <v>176.55679236</v>
+        <v>180.58713816</v>
       </c>
       <c r="Q42">
-        <v>208.05679236</v>
+        <v>212.08713816</v>
       </c>
       <c r="R42">
         <v>0.6666666666666667</v>
       </c>
       <c r="S42">
-        <v>0.1418856396027552</v>
+        <v>0.1417098563423361</v>
       </c>
       <c r="T42">
         <v>1.317545154079365</v>
       </c>
       <c r="U42">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V42">
         <v>0.22</v>
       </c>
       <c r="W42">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X42" t="inlineStr">
         <is>
@@ -4712,7 +4712,7 @@
         </is>
       </c>
       <c r="Y42">
-        <v>13.5438144058527</v>
+        <v>18.97806092671953</v>
       </c>
       <c r="Z42">
         <v>0</v>
@@ -4723,13 +4723,13 @@
         <v>0.41</v>
       </c>
       <c r="B43">
-        <v>0.09256203138854384</v>
+        <v>0.08992202796069565</v>
       </c>
       <c r="C43">
-        <v>1240.883157050995</v>
+        <v>1244.547489950727</v>
       </c>
       <c r="D43">
-        <v>1335.696657050995</v>
+        <v>1339.360989950728</v>
       </c>
       <c r="E43">
         <v>813.1635000000001</v>
@@ -4756,45 +4756,45 @@
         <v>244.4</v>
       </c>
       <c r="M43">
-        <v>19.79996805</v>
+        <v>13.1999787</v>
       </c>
       <c r="N43">
-        <v>224.60003195</v>
+        <v>231.2000213</v>
       </c>
       <c r="O43">
-        <v>49.412007029</v>
+        <v>50.864004686</v>
       </c>
       <c r="P43">
-        <v>175.188024921</v>
+        <v>180.336016614</v>
       </c>
       <c r="Q43">
-        <v>206.688024921</v>
+        <v>211.836016614</v>
       </c>
       <c r="R43">
         <v>0.6949152542372882</v>
       </c>
       <c r="S43">
-        <v>0.1437133752348201</v>
+        <v>0.1436292677299926</v>
       </c>
       <c r="T43">
         <v>1.336644269827616</v>
       </c>
       <c r="U43">
-        <v>0.0243</v>
+        <v>0.0162</v>
       </c>
       <c r="V43">
         <v>0.22</v>
       </c>
       <c r="W43">
-        <v>0.018954</v>
+        <v>0.012636</v>
       </c>
       <c r="X43" t="inlineStr">
         <is>
-          <t>Aa2/AA</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y43">
-        <v>12.34345426128099</v>
+        <v>18.51518139192149</v>
       </c>
       <c r="Z43">
         <v>0</v>
@@ -4805,13 +4805,13 @@
         <v>0.42</v>
       </c>
       <c r="B44">
-        <v>0.09241107901543461</v>
+        <v>0.08976374211598964</v>
       </c>
       <c r="C44">
-        <v>1222.763224799209</v>
+        <v>1226.526925712684</v>
       </c>
       <c r="D44">
-        <v>1337.450224799209</v>
+        <v>1341.213925712684</v>
       </c>
       <c r="E44">
         <v>833.037</v>
@@ -4838,45 +4838,45 @@
         <v>244.4</v>
       </c>
       <c r="M44">
-        <v>20.2828941</v>
+        <v>13.5219294</v>
       </c>
       <c r="N44">
-        <v>224.1171059</v>
+        <v>230.8780706</v>
       </c>
       <c r="O44">
-        <v>49.305763298</v>
+        <v>50.793175532</v>
       </c>
       <c r="P44">
-        <v>174.811342602</v>
+        <v>180.084895068</v>
       </c>
       <c r="Q44">
-        <v>206.311342602</v>
+        <v>211.584895068</v>
       </c>
       <c r="R44">
         <v>0.7241379310344827</v>
       </c>
       <c r="S44">
-        <v>0.1456041362335079</v>
+        <v>0.1456148657172235</v>
       </c>
       <c r="T44">
         <v>1.356401975774083</v>
       </c>
       <c r="U44">
-        <v>0.0243</v>
+        <v>0.0162</v>
       </c>
       <c r="V44">
         <v>0.22</v>
       </c>
       <c r="W44">
-        <v>0.018954</v>
+        <v>0.012636</v>
       </c>
       <c r="X44" t="inlineStr">
         <is>
-          <t>Aa2/AA</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y44">
-        <v>12.04956249315525</v>
+        <v>18.07434373973288</v>
       </c>
       <c r="Z44">
         <v>0</v>
@@ -4887,13 +4887,13 @@
         <v>0.43</v>
       </c>
       <c r="B45">
-        <v>0.09226012664232534</v>
+        <v>0.08960545627128363</v>
       </c>
       <c r="C45">
-        <v>1204.647902938784</v>
+        <v>1208.511495456342</v>
       </c>
       <c r="D45">
-        <v>1339.208402938785</v>
+        <v>1343.071995456342</v>
       </c>
       <c r="E45">
         <v>852.9105000000001</v>
@@ -4920,45 +4920,45 @@
         <v>244.4</v>
       </c>
       <c r="M45">
-        <v>20.76582015</v>
+        <v>13.8438801</v>
       </c>
       <c r="N45">
-        <v>223.63417985</v>
+        <v>230.5561199</v>
       </c>
       <c r="O45">
-        <v>49.199519567</v>
+        <v>50.722346378</v>
       </c>
       <c r="P45">
-        <v>174.434660283</v>
+        <v>179.833773522</v>
       </c>
       <c r="Q45">
-        <v>205.934660283</v>
+        <v>211.333773522</v>
       </c>
       <c r="R45">
         <v>0.7543859649122806</v>
       </c>
       <c r="S45">
-        <v>0.1475612397233778</v>
+        <v>0.1476701338092695</v>
       </c>
       <c r="T45">
         <v>1.376852934560777</v>
       </c>
       <c r="U45">
-        <v>0.0243</v>
+        <v>0.0162</v>
       </c>
       <c r="V45">
         <v>0.22</v>
       </c>
       <c r="W45">
-        <v>0.018954</v>
+        <v>0.012636</v>
       </c>
       <c r="X45" t="inlineStr">
         <is>
-          <t>Aa2/AA</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y45">
-        <v>11.7693401095935</v>
+        <v>17.65401016439026</v>
       </c>
       <c r="Z45">
         <v>0</v>
@@ -4969,13 +4969,13 @@
         <v>0.44</v>
       </c>
       <c r="B46">
-        <v>0.09210917426921611</v>
+        <v>0.08944717042657761</v>
       </c>
       <c r="C46">
-        <v>1186.537209675765</v>
+        <v>1190.501220548605</v>
       </c>
       <c r="D46">
-        <v>1340.971209675765</v>
+        <v>1344.935220548605</v>
       </c>
       <c r="E46">
         <v>872.7840000000001</v>
@@ -5002,45 +5002,45 @@
         <v>244.4</v>
       </c>
       <c r="M46">
-        <v>21.2487462</v>
+        <v>14.1658308</v>
       </c>
       <c r="N46">
-        <v>223.1512538</v>
+        <v>230.2341692</v>
       </c>
       <c r="O46">
-        <v>49.093275836</v>
+        <v>50.651517224</v>
       </c>
       <c r="P46">
-        <v>174.057977964</v>
+        <v>179.582651976</v>
       </c>
       <c r="Q46">
-        <v>205.557977964</v>
+        <v>211.082651976</v>
       </c>
       <c r="R46">
         <v>0.7857142857142857</v>
       </c>
       <c r="S46">
-        <v>0.1495882397664573</v>
+        <v>0.1497988043331743</v>
       </c>
       <c r="T46">
         <v>1.398034284732709</v>
       </c>
       <c r="U46">
-        <v>0.0243</v>
+        <v>0.0162</v>
       </c>
       <c r="V46">
         <v>0.22</v>
       </c>
       <c r="W46">
-        <v>0.018954</v>
+        <v>0.012636</v>
       </c>
       <c r="X46" t="inlineStr">
         <is>
-          <t>Aa2/AA</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y46">
-        <v>11.50185510710274</v>
+        <v>17.25278266065411</v>
       </c>
       <c r="Z46">
         <v>0</v>
@@ -5051,13 +5051,13 @@
         <v>0.45</v>
       </c>
       <c r="B47">
-        <v>0.09195822189610685</v>
+        <v>0.08928888458187161</v>
       </c>
       <c r="C47">
-        <v>1168.431163312179</v>
+        <v>1172.496122475112</v>
       </c>
       <c r="D47">
-        <v>1342.73866331218</v>
+        <v>1346.803622475112</v>
       </c>
       <c r="E47">
         <v>892.6575000000001</v>
@@ -5084,45 +5084,45 @@
         <v>244.4</v>
       </c>
       <c r="M47">
-        <v>21.73167225000001</v>
+        <v>14.4877815</v>
       </c>
       <c r="N47">
-        <v>222.66832775</v>
+        <v>229.9122185</v>
       </c>
       <c r="O47">
-        <v>48.987032105</v>
+        <v>50.58068807</v>
       </c>
       <c r="P47">
-        <v>173.681295645</v>
+        <v>179.33153043</v>
       </c>
       <c r="Q47">
-        <v>205.181295645</v>
+        <v>210.83153043</v>
       </c>
       <c r="R47">
         <v>0.8181818181818181</v>
       </c>
       <c r="S47">
-        <v>0.1516889489020124</v>
+        <v>0.1520048810579483</v>
       </c>
       <c r="T47">
         <v>1.419985865819985</v>
       </c>
       <c r="U47">
-        <v>0.0243</v>
+        <v>0.0162</v>
       </c>
       <c r="V47">
         <v>0.22</v>
       </c>
       <c r="W47">
-        <v>0.018954</v>
+        <v>0.012636</v>
       </c>
       <c r="X47" t="inlineStr">
         <is>
-          <t>Aa2/AA</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y47">
-        <v>11.2462583269449</v>
+        <v>16.86938749041735</v>
       </c>
       <c r="Z47">
         <v>0</v>
@@ -5133,13 +5133,13 @@
         <v>0.46</v>
       </c>
       <c r="B48">
-        <v>0.09180726952299759</v>
+        <v>0.08913059873716557</v>
       </c>
       <c r="C48">
-        <v>1150.329782246676</v>
+        <v>1154.496222841056</v>
       </c>
       <c r="D48">
-        <v>1344.510782246676</v>
+        <v>1348.677222841056</v>
       </c>
       <c r="E48">
         <v>912.5310000000002</v>
@@ -5166,45 +5166,45 @@
         <v>244.4</v>
       </c>
       <c r="M48">
-        <v>22.21459830000001</v>
+        <v>14.8097322</v>
       </c>
       <c r="N48">
-        <v>222.1854017</v>
+        <v>229.5902678</v>
       </c>
       <c r="O48">
-        <v>48.880788374</v>
+        <v>50.509858916</v>
       </c>
       <c r="P48">
-        <v>173.304613326</v>
+        <v>179.080408884</v>
       </c>
       <c r="Q48">
-        <v>204.804613326</v>
+        <v>210.580408884</v>
       </c>
       <c r="R48">
         <v>0.8518518518518519</v>
       </c>
       <c r="S48">
-        <v>0.1538674620796252</v>
+        <v>0.1542926643280844</v>
       </c>
       <c r="T48">
         <v>1.442750468429012</v>
       </c>
       <c r="U48">
-        <v>0.0243</v>
+        <v>0.0162</v>
       </c>
       <c r="V48">
         <v>0.22</v>
       </c>
       <c r="W48">
-        <v>0.018954</v>
+        <v>0.012636</v>
       </c>
       <c r="X48" t="inlineStr">
         <is>
-          <t>Aa2/AA</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y48">
-        <v>11.00177445027219</v>
+        <v>16.50266167540828</v>
       </c>
       <c r="Z48">
         <v>0</v>
@@ -5215,13 +5215,13 @@
         <v>0.47</v>
       </c>
       <c r="B49">
-        <v>0.09165631714988835</v>
+        <v>0.08897231289245958</v>
       </c>
       <c r="C49">
-        <v>1132.233084975157</v>
+        <v>1136.501543372025</v>
       </c>
       <c r="D49">
-        <v>1346.287584975157</v>
+        <v>1350.556043372025</v>
       </c>
       <c r="E49">
         <v>932.4045000000001</v>
@@ -5248,45 +5248,45 @@
         <v>244.4</v>
       </c>
       <c r="M49">
-        <v>22.69752435000001</v>
+        <v>15.1316829</v>
       </c>
       <c r="N49">
-        <v>221.70247565</v>
+        <v>229.2683171</v>
       </c>
       <c r="O49">
-        <v>48.774544643</v>
+        <v>50.439029762</v>
       </c>
       <c r="P49">
-        <v>172.927931007</v>
+        <v>178.829287338</v>
       </c>
       <c r="Q49">
-        <v>204.427931007</v>
+        <v>210.329287338</v>
       </c>
       <c r="R49">
         <v>0.8867924528301887</v>
       </c>
       <c r="S49">
-        <v>0.1561281833016761</v>
+        <v>0.1566667790423766</v>
       </c>
       <c r="T49">
         <v>1.466374112645926</v>
       </c>
       <c r="U49">
-        <v>0.0243</v>
+        <v>0.0162</v>
       </c>
       <c r="V49">
         <v>0.22</v>
       </c>
       <c r="W49">
-        <v>0.018954</v>
+        <v>0.012636</v>
       </c>
       <c r="X49" t="inlineStr">
         <is>
-          <t>Aa2/AA</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y49">
-        <v>10.76769414281959</v>
+        <v>16.15154121422938</v>
       </c>
       <c r="Z49">
         <v>0</v>
@@ -5297,13 +5297,13 @@
         <v>0.48</v>
       </c>
       <c r="B50">
-        <v>0.09150536477677909</v>
+        <v>0.08881402704775357</v>
       </c>
       <c r="C50">
-        <v>1114.141090091431</v>
+        <v>1118.512105914838</v>
       </c>
       <c r="D50">
-        <v>1348.069090091431</v>
+        <v>1352.440105914838</v>
       </c>
       <c r="E50">
         <v>952.278</v>
@@ -5330,45 +5330,45 @@
         <v>244.4</v>
       </c>
       <c r="M50">
-        <v>23.1804504</v>
+        <v>15.4536336</v>
       </c>
       <c r="N50">
-        <v>221.2195496</v>
+        <v>228.9463664</v>
       </c>
       <c r="O50">
-        <v>48.668300912</v>
+        <v>50.368200608</v>
       </c>
       <c r="P50">
-        <v>172.551248688</v>
+        <v>178.578165792</v>
       </c>
       <c r="Q50">
-        <v>204.051248688</v>
+        <v>210.078165792</v>
       </c>
       <c r="R50">
         <v>0.923076923076923</v>
       </c>
       <c r="S50">
-        <v>0.1584758553399598</v>
+        <v>0.1591322058610646</v>
       </c>
       <c r="T50">
         <v>1.490906358563492</v>
       </c>
       <c r="U50">
-        <v>0.0243</v>
+        <v>0.0162</v>
       </c>
       <c r="V50">
         <v>0.22</v>
       </c>
       <c r="W50">
-        <v>0.018954</v>
+        <v>0.012636</v>
       </c>
       <c r="X50" t="inlineStr">
         <is>
-          <t>Aa2/AA</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y50">
-        <v>10.54336718151085</v>
+        <v>15.81505077226627</v>
       </c>
       <c r="Z50">
         <v>0</v>
@@ -5379,13 +5379,13 @@
         <v>0.49</v>
       </c>
       <c r="B51">
-        <v>0.09219525240366985</v>
+        <v>0.08865574120304755</v>
       </c>
       <c r="C51">
-        <v>1086.163929593211</v>
+        <v>1100.52793243839</v>
       </c>
       <c r="D51">
-        <v>1339.965429593211</v>
+        <v>1354.32943243839</v>
       </c>
       <c r="E51">
         <v>972.1515000000001</v>
@@ -5412,45 +5412,45 @@
         <v>244.4</v>
       </c>
       <c r="M51">
-        <v>25.80573975</v>
+        <v>15.7755843</v>
       </c>
       <c r="N51">
-        <v>218.59426025</v>
+        <v>228.6244157</v>
       </c>
       <c r="O51">
-        <v>48.090737255</v>
+        <v>50.297371454</v>
       </c>
       <c r="P51">
-        <v>170.503522995</v>
+        <v>178.327044246</v>
       </c>
       <c r="Q51">
-        <v>202.003522995</v>
+        <v>209.827044246</v>
       </c>
       <c r="R51">
         <v>0.9607843137254901</v>
       </c>
       <c r="S51">
-        <v>0.1609155929483722</v>
+        <v>0.161694316084407</v>
       </c>
       <c r="T51">
         <v>1.516400653340569</v>
       </c>
       <c r="U51">
-        <v>0.0265</v>
+        <v>0.0162</v>
       </c>
       <c r="V51">
         <v>0.22</v>
       </c>
       <c r="W51">
-        <v>0.02067</v>
+        <v>0.012636</v>
       </c>
       <c r="X51" t="inlineStr">
         <is>
-          <t>A1/A+</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y51">
-        <v>9.470761247989412</v>
+        <v>15.49229463405676</v>
       </c>
       <c r="Z51">
         <v>0</v>
@@ -5461,13 +5461,13 @@
         <v>0.5</v>
       </c>
       <c r="B52">
-        <v>0.09206146003056058</v>
+        <v>0.08849745535834154</v>
       </c>
       <c r="C52">
-        <v>1067.854377473223</v>
+        <v>1082.549045034508</v>
       </c>
       <c r="D52">
-        <v>1341.529377473224</v>
+        <v>1356.224045034508</v>
       </c>
       <c r="E52">
         <v>992.0250000000001</v>
@@ -5494,45 +5494,45 @@
         <v>244.4</v>
       </c>
       <c r="M52">
-        <v>26.3323875</v>
+        <v>16.097535</v>
       </c>
       <c r="N52">
-        <v>218.0676125</v>
+        <v>228.302465</v>
       </c>
       <c r="O52">
-        <v>47.97487475</v>
+        <v>50.22654230000001</v>
       </c>
       <c r="P52">
-        <v>170.09273775</v>
+        <v>178.0759227</v>
       </c>
       <c r="Q52">
-        <v>201.59273775</v>
+        <v>209.5759227</v>
       </c>
       <c r="R52">
         <v>1</v>
       </c>
       <c r="S52">
-        <v>0.1634529200611212</v>
+        <v>0.1643589107166831</v>
       </c>
       <c r="T52">
         <v>1.54291471990873</v>
       </c>
       <c r="U52">
-        <v>0.0265</v>
+        <v>0.0162</v>
       </c>
       <c r="V52">
         <v>0.22</v>
       </c>
       <c r="W52">
-        <v>0.02067</v>
+        <v>0.012636</v>
       </c>
       <c r="X52" t="inlineStr">
         <is>
-          <t>A1/A+</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y52">
-        <v>9.281346023029624</v>
+        <v>15.18244874137562</v>
       </c>
       <c r="Z52">
         <v>0</v>
@@ -5543,13 +5543,13 @@
         <v>0.51</v>
       </c>
       <c r="B53">
-        <v>0.09192766765745135</v>
+        <v>0.08833916951363552</v>
       </c>
       <c r="C53">
-        <v>1049.548480359606</v>
+        <v>1064.575465918814</v>
       </c>
       <c r="D53">
-        <v>1343.096980359607</v>
+        <v>1358.123965918814</v>
       </c>
       <c r="E53">
         <v>1011.8985</v>
@@ -5576,45 +5576,45 @@
         <v>244.4</v>
       </c>
       <c r="M53">
-        <v>26.85903525000001</v>
+        <v>16.4194857</v>
       </c>
       <c r="N53">
-        <v>217.54096475</v>
+        <v>227.9805143</v>
       </c>
       <c r="O53">
-        <v>47.859012245</v>
+        <v>50.155713146</v>
       </c>
       <c r="P53">
-        <v>169.681952505</v>
+        <v>177.824801154</v>
       </c>
       <c r="Q53">
-        <v>201.181952505</v>
+        <v>209.324801154</v>
       </c>
       <c r="R53">
         <v>1.040816326530612</v>
       </c>
       <c r="S53">
-        <v>0.1660938115458191</v>
+        <v>0.1671322643135419</v>
       </c>
       <c r="T53">
         <v>1.570510993275591</v>
       </c>
       <c r="U53">
-        <v>0.0265</v>
+        <v>0.0162</v>
       </c>
       <c r="V53">
         <v>0.22</v>
       </c>
       <c r="W53">
-        <v>0.02067</v>
+        <v>0.012636</v>
       </c>
       <c r="X53" t="inlineStr">
         <is>
-          <t>A1/A+</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y53">
-        <v>9.099358846107474</v>
+        <v>14.88475366801532</v>
       </c>
       <c r="Z53">
         <v>0</v>
@@ -5625,13 +5625,13 @@
         <v>0.52</v>
       </c>
       <c r="B54">
-        <v>0.09179387528434209</v>
+        <v>0.08818088366892952</v>
       </c>
       <c r="C54">
-        <v>1031.246251080186</v>
+        <v>1046.60721743159</v>
       </c>
       <c r="D54">
-        <v>1344.668251080186</v>
+        <v>1360.02921743159</v>
       </c>
       <c r="E54">
         <v>1031.772</v>
@@ -5658,45 +5658,45 @@
         <v>244.4</v>
       </c>
       <c r="M54">
-        <v>27.385683</v>
+        <v>16.7414364</v>
       </c>
       <c r="N54">
-        <v>217.014317</v>
+        <v>227.6585636</v>
       </c>
       <c r="O54">
-        <v>47.74314974</v>
+        <v>50.084883992</v>
       </c>
       <c r="P54">
-        <v>169.27116726</v>
+        <v>177.573679608</v>
       </c>
       <c r="Q54">
-        <v>200.77116726</v>
+        <v>209.073679608</v>
       </c>
       <c r="R54">
         <v>1.083333333333333</v>
       </c>
       <c r="S54">
-        <v>0.1688447401757127</v>
+        <v>0.1700211743102698</v>
       </c>
       <c r="T54">
         <v>1.599257111366071</v>
       </c>
       <c r="U54">
-        <v>0.0265</v>
+        <v>0.0162</v>
       </c>
       <c r="V54">
         <v>0.22</v>
       </c>
       <c r="W54">
-        <v>0.02067</v>
+        <v>0.012636</v>
       </c>
       <c r="X54" t="inlineStr">
         <is>
-          <t>A1/A+</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y54">
-        <v>8.924371175990021</v>
+        <v>14.59850840516887</v>
       </c>
       <c r="Z54">
         <v>0</v>
@@ -5707,13 +5707,13 @@
         <v>0.53</v>
       </c>
       <c r="B55">
-        <v>0.09166008291123282</v>
+        <v>0.08802259782422349</v>
       </c>
       <c r="C55">
-        <v>1012.947702522886</v>
+        <v>1028.644322038654</v>
       </c>
       <c r="D55">
-        <v>1346.243202522886</v>
+        <v>1361.939822038654</v>
       </c>
       <c r="E55">
         <v>1051.6455</v>
@@ -5740,45 +5740,45 @@
         <v>244.4</v>
       </c>
       <c r="M55">
-        <v>27.91233075000001</v>
+        <v>17.0633871</v>
       </c>
       <c r="N55">
-        <v>216.48766925</v>
+        <v>227.3366129</v>
       </c>
       <c r="O55">
-        <v>47.627287235</v>
+        <v>50.014054838</v>
       </c>
       <c r="P55">
-        <v>168.860382015</v>
+        <v>177.322558062</v>
       </c>
       <c r="Q55">
-        <v>200.360382015</v>
+        <v>208.822558062</v>
       </c>
       <c r="R55">
         <v>1.127659574468085</v>
       </c>
       <c r="S55">
-        <v>0.1717127295983677</v>
+        <v>0.173033016647284</v>
       </c>
       <c r="T55">
         <v>1.629226468524231</v>
       </c>
       <c r="U55">
-        <v>0.0265</v>
+        <v>0.0162</v>
       </c>
       <c r="V55">
         <v>0.22</v>
       </c>
       <c r="W55">
-        <v>0.02067</v>
+        <v>0.012636</v>
       </c>
       <c r="X55" t="inlineStr">
         <is>
-          <t>A1/A+</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y55">
-        <v>8.75598681417889</v>
+        <v>14.32306485035436</v>
       </c>
       <c r="Z55">
         <v>0</v>
@@ -5789,13 +5789,13 @@
         <v>0.54</v>
       </c>
       <c r="B56">
-        <v>0.09152629053812358</v>
+        <v>0.08786431197951748</v>
       </c>
       <c r="C56">
-        <v>994.6528476360816</v>
+        <v>1010.686802332246</v>
       </c>
       <c r="D56">
-        <v>1347.821847636081</v>
+        <v>1363.855802332246</v>
       </c>
       <c r="E56">
         <v>1071.519</v>
@@ -5822,45 +5822,45 @@
         <v>244.4</v>
       </c>
       <c r="M56">
-        <v>28.4389785</v>
+        <v>17.3853378</v>
       </c>
       <c r="N56">
-        <v>215.9610215</v>
+        <v>227.0146622</v>
       </c>
       <c r="O56">
-        <v>47.51142473</v>
+        <v>49.943225684</v>
       </c>
       <c r="P56">
-        <v>168.44959677</v>
+        <v>177.071436516</v>
       </c>
       <c r="Q56">
-        <v>199.94959677</v>
+        <v>208.571436516</v>
       </c>
       <c r="R56">
         <v>1.173913043478261</v>
       </c>
       <c r="S56">
-        <v>0.1747054142133121</v>
+        <v>0.176175808651125</v>
       </c>
       <c r="T56">
         <v>1.660498841211007</v>
       </c>
       <c r="U56">
-        <v>0.0265</v>
+        <v>0.0162</v>
       </c>
       <c r="V56">
         <v>0.22</v>
       </c>
       <c r="W56">
-        <v>0.02067</v>
+        <v>0.012636</v>
       </c>
       <c r="X56" t="inlineStr">
         <is>
-          <t>A1/A+</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y56">
-        <v>8.593838910212614</v>
+        <v>14.05782290868113</v>
       </c>
       <c r="Z56">
         <v>0</v>
@@ -5871,13 +5871,13 @@
         <v>0.55</v>
       </c>
       <c r="B57">
-        <v>0.09139249816501434</v>
+        <v>0.08770602613481149</v>
       </c>
       <c r="C57">
-        <v>976.3616994289534</v>
+        <v>992.734681031912</v>
       </c>
       <c r="D57">
-        <v>1349.404199428954</v>
+        <v>1365.777181031912</v>
       </c>
       <c r="E57">
         <v>1091.3925</v>
@@ -5904,45 +5904,45 @@
         <v>244.4</v>
       </c>
       <c r="M57">
-        <v>28.96562625000001</v>
+        <v>17.7072885</v>
       </c>
       <c r="N57">
-        <v>215.43437375</v>
+        <v>226.6927115</v>
       </c>
       <c r="O57">
-        <v>47.395562225</v>
+        <v>49.87239653</v>
       </c>
       <c r="P57">
-        <v>168.038811525</v>
+        <v>176.82031497</v>
       </c>
       <c r="Q57">
-        <v>199.538811525</v>
+        <v>208.32031497</v>
       </c>
       <c r="R57">
         <v>1.222222222222223</v>
       </c>
       <c r="S57">
-        <v>0.1778311070333652</v>
+        <v>0.1794582802995811</v>
       </c>
       <c r="T57">
         <v>1.693161097128307</v>
       </c>
       <c r="U57">
-        <v>0.0265</v>
+        <v>0.0162</v>
       </c>
       <c r="V57">
         <v>0.22</v>
       </c>
       <c r="W57">
-        <v>0.02067</v>
+        <v>0.012636</v>
       </c>
       <c r="X57" t="inlineStr">
         <is>
-          <t>A1/A+</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y57">
-        <v>8.437587293663292</v>
+        <v>13.80222612852329</v>
       </c>
       <c r="Z57">
         <v>0</v>
@@ -5953,13 +5953,13 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="B58">
-        <v>0.09125870579190508</v>
+        <v>0.08824662029010545</v>
       </c>
       <c r="C58">
-        <v>958.074270971847</v>
+        <v>966.3213116943666</v>
       </c>
       <c r="D58">
-        <v>1350.990270971847</v>
+        <v>1359.237311694367</v>
       </c>
       <c r="E58">
         <v>1111.266</v>
@@ -5986,45 +5986,45 @@
         <v>244.4</v>
       </c>
       <c r="M58">
-        <v>29.49227400000001</v>
+        <v>19.8099048</v>
       </c>
       <c r="N58">
-        <v>214.907726</v>
+        <v>224.5900952</v>
       </c>
       <c r="O58">
-        <v>47.27969972</v>
+        <v>49.409820944</v>
       </c>
       <c r="P58">
-        <v>167.62802628</v>
+        <v>175.180274256</v>
       </c>
       <c r="Q58">
-        <v>199.12802628</v>
+        <v>206.680274256</v>
       </c>
       <c r="R58">
         <v>1.272727272727273</v>
       </c>
       <c r="S58">
-        <v>0.1810988767997843</v>
+        <v>0.1828899552047852</v>
       </c>
       <c r="T58">
         <v>1.727308001041847</v>
       </c>
       <c r="U58">
-        <v>0.0265</v>
+        <v>0.0178</v>
       </c>
       <c r="V58">
         <v>0.22</v>
       </c>
       <c r="W58">
-        <v>0.02067</v>
+        <v>0.013884</v>
       </c>
       <c r="X58" t="inlineStr">
         <is>
-          <t>A1/A+</t>
+          <t>Aa2/AA</t>
         </is>
       </c>
       <c r="Y58">
-        <v>8.286916091990733</v>
+        <v>12.33726272122216</v>
       </c>
       <c r="Z58">
         <v>0</v>
@@ -6035,13 +6035,13 @@
         <v>0.5700000000000001</v>
       </c>
       <c r="B59">
-        <v>0.09112491341879582</v>
+        <v>0.08810081444539944</v>
       </c>
       <c r="C59">
-        <v>939.7905753966281</v>
+        <v>948.2055302836459</v>
       </c>
       <c r="D59">
-        <v>1352.580075396628</v>
+        <v>1360.995030283646</v>
       </c>
       <c r="E59">
         <v>1131.1395</v>
@@ -6068,45 +6068,45 @@
         <v>244.4</v>
       </c>
       <c r="M59">
-        <v>30.01892175</v>
+        <v>20.1636531</v>
       </c>
       <c r="N59">
-        <v>214.38107825</v>
+        <v>224.2363469</v>
       </c>
       <c r="O59">
-        <v>47.163837215</v>
+        <v>49.331996318</v>
       </c>
       <c r="P59">
-        <v>167.217241035</v>
+        <v>174.904350582</v>
       </c>
       <c r="Q59">
-        <v>198.717241035</v>
+        <v>206.404350582</v>
       </c>
       <c r="R59">
         <v>1.325581395348838</v>
       </c>
       <c r="S59">
-        <v>0.1845186358576647</v>
+        <v>0.1864812428962778</v>
       </c>
       <c r="T59">
         <v>1.763043133044389</v>
       </c>
       <c r="U59">
-        <v>0.0265</v>
+        <v>0.0178</v>
       </c>
       <c r="V59">
         <v>0.22</v>
       </c>
       <c r="W59">
-        <v>0.02067</v>
+        <v>0.013884</v>
       </c>
       <c r="X59" t="inlineStr">
         <is>
-          <t>A1/A+</t>
+          <t>Aa2/AA</t>
         </is>
       </c>
       <c r="Y59">
-        <v>8.141531599148792</v>
+        <v>12.12081951558669</v>
       </c>
       <c r="Z59">
         <v>0</v>
@@ -6117,13 +6117,13 @@
         <v>0.58</v>
       </c>
       <c r="B60">
-        <v>0.09099112104568657</v>
+        <v>0.08795500860069343</v>
       </c>
       <c r="C60">
-        <v>921.5106258970509</v>
+        <v>930.0943008008576</v>
       </c>
       <c r="D60">
-        <v>1354.173625897051</v>
+        <v>1362.757300800858</v>
       </c>
       <c r="E60">
         <v>1151.013</v>
@@ -6150,45 +6150,45 @@
         <v>244.4</v>
       </c>
       <c r="M60">
-        <v>30.5455695</v>
+        <v>20.5174014</v>
       </c>
       <c r="N60">
-        <v>213.8544305</v>
+        <v>223.8825986</v>
       </c>
       <c r="O60">
-        <v>47.04797471</v>
+        <v>49.254171692</v>
       </c>
       <c r="P60">
-        <v>166.80645579</v>
+        <v>174.628426908</v>
       </c>
       <c r="Q60">
-        <v>198.30645579</v>
+        <v>206.128426908</v>
       </c>
       <c r="R60">
         <v>1.380952380952381</v>
       </c>
       <c r="S60">
-        <v>0.188101240584968</v>
+        <v>0.1902435442873653</v>
       </c>
       <c r="T60">
         <v>1.800479937999432</v>
       </c>
       <c r="U60">
-        <v>0.0265</v>
+        <v>0.0178</v>
       </c>
       <c r="V60">
         <v>0.22</v>
       </c>
       <c r="W60">
-        <v>0.02067</v>
+        <v>0.013884</v>
       </c>
       <c r="X60" t="inlineStr">
         <is>
-          <t>A1/A+</t>
+          <t>Aa2/AA</t>
         </is>
       </c>
       <c r="Y60">
-        <v>8.001160364680711</v>
+        <v>11.91183986876623</v>
       </c>
       <c r="Z60">
         <v>0</v>
@@ -6199,13 +6199,13 @@
         <v>0.59</v>
       </c>
       <c r="B61">
-        <v>0.09085732867257733</v>
+        <v>0.08780920275598741</v>
       </c>
       <c r="C61">
-        <v>903.2344357291183</v>
+        <v>911.98764095098</v>
       </c>
       <c r="D61">
-        <v>1355.770935729118</v>
+        <v>1364.52414095098</v>
       </c>
       <c r="E61">
         <v>1170.8865</v>
@@ -6232,45 +6232,45 @@
         <v>244.4</v>
       </c>
       <c r="M61">
-        <v>31.07221725</v>
+        <v>20.8711497</v>
       </c>
       <c r="N61">
-        <v>213.32778275</v>
+        <v>223.5288503</v>
       </c>
       <c r="O61">
-        <v>46.932112205</v>
+        <v>49.17634706600001</v>
       </c>
       <c r="P61">
-        <v>166.395670545</v>
+        <v>174.352503234</v>
       </c>
       <c r="Q61">
-        <v>197.895670545</v>
+        <v>205.852503234</v>
       </c>
       <c r="R61">
         <v>1.439024390243902</v>
       </c>
       <c r="S61">
-        <v>0.1918586065184813</v>
+        <v>0.1941893725755791</v>
       </c>
       <c r="T61">
         <v>1.839742928562039</v>
       </c>
       <c r="U61">
-        <v>0.0265</v>
+        <v>0.0178</v>
       </c>
       <c r="V61">
         <v>0.22</v>
       </c>
       <c r="W61">
-        <v>0.02067</v>
+        <v>0.013884</v>
       </c>
       <c r="X61" t="inlineStr">
         <is>
-          <t>A1/A+</t>
+          <t>Aa2/AA</t>
         </is>
       </c>
       <c r="Y61">
-        <v>7.86554747714375</v>
+        <v>11.70994427777019</v>
       </c>
       <c r="Z61">
         <v>0</v>
@@ -6281,13 +6281,13 @@
         <v>0.6</v>
       </c>
       <c r="B62">
-        <v>0.09123833629946809</v>
+        <v>0.08766339691128142</v>
       </c>
       <c r="C62">
-        <v>878.8220727617324</v>
+        <v>893.8855685309275</v>
       </c>
       <c r="D62">
-        <v>1351.232072761733</v>
+        <v>1366.295568530928</v>
       </c>
       <c r="E62">
         <v>1190.76</v>
@@ -6314,45 +6314,45 @@
         <v>244.4</v>
       </c>
       <c r="M62">
-        <v>32.910516</v>
+        <v>21.224898</v>
       </c>
       <c r="N62">
-        <v>211.489484</v>
+        <v>223.175102</v>
       </c>
       <c r="O62">
-        <v>46.52768648</v>
+        <v>49.09852244</v>
       </c>
       <c r="P62">
-        <v>164.96179752</v>
+        <v>174.07657956</v>
       </c>
       <c r="Q62">
-        <v>196.46179752</v>
+        <v>205.57657956</v>
       </c>
       <c r="R62">
         <v>1.5</v>
       </c>
       <c r="S62">
-        <v>0.1958038407486702</v>
+        <v>0.1983324922782035</v>
       </c>
       <c r="T62">
         <v>1.880969068652777</v>
       </c>
       <c r="U62">
-        <v>0.0276</v>
+        <v>0.0178</v>
       </c>
       <c r="V62">
         <v>0.22</v>
       </c>
       <c r="W62">
-        <v>0.021528</v>
+        <v>0.013884</v>
       </c>
       <c r="X62" t="inlineStr">
         <is>
-          <t>A2/A</t>
+          <t>Aa2/AA</t>
         </is>
       </c>
       <c r="Y62">
-        <v>7.426197753933727</v>
+        <v>11.51477853980735</v>
       </c>
       <c r="Z62">
         <v>0</v>
@@ -6363,13 +6363,13 @@
         <v>0.61</v>
       </c>
       <c r="B63">
-        <v>0.09111312392635883</v>
+        <v>0.08751759106657539</v>
       </c>
       <c r="C63">
-        <v>860.4368448979244</v>
+        <v>875.7881014301538</v>
       </c>
       <c r="D63">
-        <v>1352.720344897924</v>
+        <v>1368.071601430154</v>
       </c>
       <c r="E63">
         <v>1210.6335</v>
@@ -6396,45 +6396,45 @@
         <v>244.4</v>
       </c>
       <c r="M63">
-        <v>33.4590246</v>
+        <v>21.5786463</v>
       </c>
       <c r="N63">
-        <v>210.9409754</v>
+        <v>222.8213537</v>
       </c>
       <c r="O63">
-        <v>46.407014588</v>
+        <v>49.020697814</v>
       </c>
       <c r="P63">
-        <v>164.533960812</v>
+        <v>173.800655886</v>
       </c>
       <c r="Q63">
-        <v>196.033960812</v>
+        <v>205.300655886</v>
       </c>
       <c r="R63">
         <v>1.564102564102564</v>
       </c>
       <c r="S63">
-        <v>0.1999513946829713</v>
+        <v>0.2026880796578856</v>
       </c>
       <c r="T63">
         <v>1.924309369773809</v>
       </c>
       <c r="U63">
-        <v>0.0276</v>
+        <v>0.0178</v>
       </c>
       <c r="V63">
         <v>0.22</v>
       </c>
       <c r="W63">
-        <v>0.021528</v>
+        <v>0.013884</v>
       </c>
       <c r="X63" t="inlineStr">
         <is>
-          <t>A2/A</t>
+          <t>Aa2/AA</t>
         </is>
       </c>
       <c r="Y63">
-        <v>7.304456807147929</v>
+        <v>11.32601167849904</v>
       </c>
       <c r="Z63">
         <v>0</v>
@@ -6445,13 +6445,13 @@
         <v>0.62</v>
       </c>
       <c r="B64">
-        <v>0.09098791155324958</v>
+        <v>0.08737178522186938</v>
       </c>
       <c r="C64">
-        <v>842.0548990702328</v>
+        <v>857.6952576312478</v>
       </c>
       <c r="D64">
-        <v>1354.211899070233</v>
+        <v>1369.852257631248</v>
       </c>
       <c r="E64">
         <v>1230.507</v>
@@ -6478,45 +6478,45 @@
         <v>244.4</v>
       </c>
       <c r="M64">
-        <v>34.0075332</v>
+        <v>21.9323946</v>
       </c>
       <c r="N64">
-        <v>210.3924668</v>
+        <v>222.4676054</v>
       </c>
       <c r="O64">
-        <v>46.286342696</v>
+        <v>48.942873188</v>
       </c>
       <c r="P64">
-        <v>164.106124104</v>
+        <v>173.524732212</v>
       </c>
       <c r="Q64">
-        <v>195.606124104</v>
+        <v>205.024732212</v>
       </c>
       <c r="R64">
         <v>1.631578947368421</v>
       </c>
       <c r="S64">
-        <v>0.2043172409296041</v>
+        <v>0.2072729084786036</v>
       </c>
       <c r="T64">
         <v>1.969930739374895</v>
       </c>
       <c r="U64">
-        <v>0.0276</v>
+        <v>0.0178</v>
       </c>
       <c r="V64">
         <v>0.22</v>
       </c>
       <c r="W64">
-        <v>0.021528</v>
+        <v>0.013884</v>
       </c>
       <c r="X64" t="inlineStr">
         <is>
-          <t>A2/A</t>
+          <t>Aa2/AA</t>
         </is>
       </c>
       <c r="Y64">
-        <v>7.1866429876778</v>
+        <v>11.14333407078131</v>
       </c>
       <c r="Z64">
         <v>0</v>
@@ -6527,13 +6527,13 @@
         <v>0.63</v>
       </c>
       <c r="B65">
-        <v>0.09086269918014032</v>
+        <v>0.08722597937716337</v>
       </c>
       <c r="C65">
-        <v>823.6762461472879</v>
+        <v>839.6070552105459</v>
       </c>
       <c r="D65">
-        <v>1355.706746147288</v>
+        <v>1371.637555210546</v>
       </c>
       <c r="E65">
         <v>1250.3805</v>
@@ -6560,45 +6560,45 @@
         <v>244.4</v>
       </c>
       <c r="M65">
-        <v>34.5560418</v>
+        <v>22.2861429</v>
       </c>
       <c r="N65">
-        <v>209.8439582</v>
+        <v>222.1138571</v>
       </c>
       <c r="O65">
-        <v>46.165670804</v>
+        <v>48.86504856200001</v>
       </c>
       <c r="P65">
-        <v>163.678287396</v>
+        <v>173.248808538</v>
       </c>
       <c r="Q65">
-        <v>195.178287396</v>
+        <v>204.748808538</v>
       </c>
       <c r="R65">
         <v>1.702702702702703</v>
       </c>
       <c r="S65">
-        <v>0.2089190788652441</v>
+        <v>0.2121055658842253</v>
       </c>
       <c r="T65">
         <v>2.018018128954418</v>
       </c>
       <c r="U65">
-        <v>0.0276</v>
+        <v>0.0178</v>
       </c>
       <c r="V65">
         <v>0.22</v>
       </c>
       <c r="W65">
-        <v>0.021528</v>
+        <v>0.013884</v>
       </c>
       <c r="X65" t="inlineStr">
         <is>
-          <t>A2/A</t>
+          <t>Aa2/AA</t>
         </is>
       </c>
       <c r="Y65">
-        <v>7.072569289460692</v>
+        <v>10.96645575219748</v>
       </c>
       <c r="Z65">
         <v>0</v>
@@ -6609,13 +6609,13 @@
         <v>0.64</v>
       </c>
       <c r="B66">
-        <v>0.09073748680703106</v>
+        <v>0.08708017353245735</v>
       </c>
       <c r="C66">
-        <v>805.3008970457597</v>
+        <v>821.5235123387395</v>
       </c>
       <c r="D66">
-        <v>1357.20489704576</v>
+        <v>1373.42751233874</v>
       </c>
       <c r="E66">
         <v>1270.254</v>
@@ -6642,45 +6642,45 @@
         <v>244.4</v>
       </c>
       <c r="M66">
-        <v>35.10455040000001</v>
+        <v>22.6398912</v>
       </c>
       <c r="N66">
-        <v>209.2954496</v>
+        <v>221.7601088</v>
       </c>
       <c r="O66">
-        <v>46.044998912</v>
+        <v>48.787223936</v>
       </c>
       <c r="P66">
-        <v>163.250450688</v>
+        <v>172.972884864</v>
       </c>
       <c r="Q66">
-        <v>194.750450688</v>
+        <v>204.472884864</v>
       </c>
       <c r="R66">
         <v>1.777777777777778</v>
       </c>
       <c r="S66">
-        <v>0.2137765744639752</v>
+        <v>0.217206704256826</v>
       </c>
       <c r="T66">
         <v>2.068777040177248</v>
       </c>
       <c r="U66">
-        <v>0.0276</v>
+        <v>0.0178</v>
       </c>
       <c r="V66">
         <v>0.22</v>
       </c>
       <c r="W66">
-        <v>0.021528</v>
+        <v>0.013884</v>
       </c>
       <c r="X66" t="inlineStr">
         <is>
-          <t>A2/A</t>
+          <t>Aa2/AA</t>
         </is>
       </c>
       <c r="Y66">
-        <v>6.962060394312868</v>
+        <v>10.79510488106939</v>
       </c>
       <c r="Z66">
         <v>0</v>
@@ -6691,13 +6691,13 @@
         <v>0.65</v>
       </c>
       <c r="B67">
-        <v>0.09061227443392182</v>
+        <v>0.08804976768775134</v>
       </c>
       <c r="C67">
-        <v>786.9288627306278</v>
+        <v>789.8339840248764</v>
       </c>
       <c r="D67">
-        <v>1358.706362730628</v>
+        <v>1361.611484024876</v>
       </c>
       <c r="E67">
         <v>1290.1275</v>
@@ -6724,45 +6724,45 @@
         <v>244.4</v>
       </c>
       <c r="M67">
-        <v>35.65305900000001</v>
+        <v>25.83555</v>
       </c>
       <c r="N67">
-        <v>208.746941</v>
+        <v>218.56445</v>
       </c>
       <c r="O67">
-        <v>45.92432702</v>
+        <v>48.08417900000001</v>
       </c>
       <c r="P67">
-        <v>162.82261398</v>
+        <v>170.480271</v>
       </c>
       <c r="Q67">
-        <v>194.32261398</v>
+        <v>201.980271</v>
       </c>
       <c r="R67">
         <v>1.857142857142857</v>
       </c>
       <c r="S67">
-        <v>0.2189116412397767</v>
+        <v>0.2225993362507181</v>
       </c>
       <c r="T67">
         <v>2.122436460612811</v>
       </c>
       <c r="U67">
-        <v>0.0276</v>
+        <v>0.02</v>
       </c>
       <c r="V67">
         <v>0.22</v>
       </c>
       <c r="W67">
-        <v>0.021528</v>
+        <v>0.0156</v>
       </c>
       <c r="X67" t="inlineStr">
         <is>
-          <t>A2/A</t>
+          <t>A1/A+</t>
         </is>
       </c>
       <c r="Y67">
-        <v>6.854951772861901</v>
+        <v>9.459833446549426</v>
       </c>
       <c r="Z67">
         <v>0</v>
@@ -6773,13 +6773,13 @@
         <v>0.66</v>
       </c>
       <c r="B68">
-        <v>0.09048706206081258</v>
+        <v>0.08792112184304533</v>
       </c>
       <c r="C68">
-        <v>768.560154215447</v>
+        <v>771.5165241260154</v>
       </c>
       <c r="D68">
-        <v>1360.211154215447</v>
+        <v>1363.167524126015</v>
       </c>
       <c r="E68">
         <v>1310.001</v>
@@ -6806,45 +6806,45 @@
         <v>244.4</v>
       </c>
       <c r="M68">
-        <v>36.2015676</v>
+        <v>26.23302</v>
       </c>
       <c r="N68">
-        <v>208.1984324</v>
+        <v>218.16698</v>
       </c>
       <c r="O68">
-        <v>45.803655128</v>
+        <v>47.99673560000001</v>
       </c>
       <c r="P68">
-        <v>162.394777272</v>
+        <v>170.1702444</v>
       </c>
       <c r="Q68">
-        <v>193.894777272</v>
+        <v>201.6702444</v>
       </c>
       <c r="R68">
         <v>1.941176470588236</v>
       </c>
       <c r="S68">
-        <v>0.2243487707670958</v>
+        <v>0.2283091818913098</v>
       </c>
       <c r="T68">
         <v>2.179252317544584</v>
       </c>
       <c r="U68">
-        <v>0.0276</v>
+        <v>0.02</v>
       </c>
       <c r="V68">
         <v>0.22</v>
       </c>
       <c r="W68">
-        <v>0.021528</v>
+        <v>0.0156</v>
       </c>
       <c r="X68" t="inlineStr">
         <is>
-          <t>A2/A</t>
+          <t>A1/A+</t>
         </is>
       </c>
       <c r="Y68">
-        <v>6.751088867212479</v>
+        <v>9.316502636753224</v>
       </c>
       <c r="Z68">
         <v>0</v>
@@ -6855,13 +6855,13 @@
         <v>0.67</v>
       </c>
       <c r="B69">
-        <v>0.09036184968770332</v>
+        <v>0.08779247599833931</v>
       </c>
       <c r="C69">
-        <v>750.1947825626173</v>
+        <v>753.2026247596416</v>
       </c>
       <c r="D69">
-        <v>1361.719282562618</v>
+        <v>1364.727124759642</v>
       </c>
       <c r="E69">
         <v>1329.8745</v>
@@ -6888,45 +6888,45 @@
         <v>244.4</v>
       </c>
       <c r="M69">
-        <v>36.7500762</v>
+        <v>26.63049</v>
       </c>
       <c r="N69">
-        <v>207.6499238</v>
+        <v>217.76951</v>
       </c>
       <c r="O69">
-        <v>45.68298323600001</v>
+        <v>47.9092922</v>
       </c>
       <c r="P69">
-        <v>161.966940564</v>
+        <v>169.8602178</v>
       </c>
       <c r="Q69">
-        <v>193.466940564</v>
+        <v>201.3602178</v>
       </c>
       <c r="R69">
         <v>2.030303030303031</v>
       </c>
       <c r="S69">
-        <v>0.2301154232960707</v>
+        <v>0.2343650787828464</v>
       </c>
       <c r="T69">
         <v>2.239511559744949</v>
       </c>
       <c r="U69">
-        <v>0.0276</v>
+        <v>0.02</v>
       </c>
       <c r="V69">
         <v>0.22</v>
       </c>
       <c r="W69">
-        <v>0.021528</v>
+        <v>0.0156</v>
       </c>
       <c r="X69" t="inlineStr">
         <is>
-          <t>A2/A</t>
+          <t>A1/A+</t>
         </is>
       </c>
       <c r="Y69">
-        <v>6.650326346806323</v>
+        <v>9.177450358592726</v>
       </c>
       <c r="Z69">
         <v>0</v>
@@ -6937,13 +6937,13 @@
         <v>0.68</v>
       </c>
       <c r="B70">
-        <v>0.09023663731459408</v>
+        <v>0.0876638301536333</v>
       </c>
       <c r="C70">
-        <v>731.8327588836537</v>
+        <v>734.8922981605742</v>
       </c>
       <c r="D70">
-        <v>1363.230758883654</v>
+        <v>1366.290298160574</v>
       </c>
       <c r="E70">
         <v>1349.748</v>
@@ -6970,45 +6970,45 @@
         <v>244.4</v>
       </c>
       <c r="M70">
-        <v>37.2985848</v>
+        <v>27.02796</v>
       </c>
       <c r="N70">
-        <v>207.1014152</v>
+        <v>217.37204</v>
       </c>
       <c r="O70">
-        <v>45.562311344</v>
+        <v>47.8218488</v>
       </c>
       <c r="P70">
-        <v>161.539103856</v>
+        <v>169.5501912</v>
       </c>
       <c r="Q70">
-        <v>193.039103856</v>
+        <v>201.0501912</v>
       </c>
       <c r="R70">
         <v>2.125</v>
       </c>
       <c r="S70">
-        <v>0.2362424916081065</v>
+        <v>0.2407994692301041</v>
       </c>
       <c r="T70">
         <v>2.303537004582837</v>
       </c>
       <c r="U70">
-        <v>0.0276</v>
+        <v>0.02</v>
       </c>
       <c r="V70">
         <v>0.22</v>
       </c>
       <c r="W70">
-        <v>0.021528</v>
+        <v>0.0156</v>
       </c>
       <c r="X70" t="inlineStr">
         <is>
-          <t>A2/A</t>
+          <t>A1/A+</t>
         </is>
       </c>
       <c r="Y70">
-        <v>6.552527429941525</v>
+        <v>9.042487853319303</v>
       </c>
       <c r="Z70">
         <v>0</v>
@@ -7019,13 +7019,13 @@
         <v>0.6900000000000001</v>
       </c>
       <c r="B71">
-        <v>0.09011142494148482</v>
+        <v>0.08753518430892729</v>
       </c>
       <c r="C71">
-        <v>713.4740943394622</v>
+        <v>716.5855566197511</v>
       </c>
       <c r="D71">
-        <v>1364.745594339462</v>
+        <v>1367.857056619752</v>
       </c>
       <c r="E71">
         <v>1369.6215</v>
@@ -7052,45 +7052,45 @@
         <v>244.4</v>
       </c>
       <c r="M71">
-        <v>37.84709340000001</v>
+        <v>27.42543</v>
       </c>
       <c r="N71">
-        <v>206.5529066</v>
+        <v>216.97457</v>
       </c>
       <c r="O71">
-        <v>45.441639452</v>
+        <v>47.7344054</v>
       </c>
       <c r="P71">
-        <v>161.111267148</v>
+        <v>169.2401646</v>
       </c>
       <c r="Q71">
-        <v>192.611267148</v>
+        <v>200.7401646</v>
       </c>
       <c r="R71">
         <v>2.225806451612904</v>
       </c>
       <c r="S71">
-        <v>0.2427648546499511</v>
+        <v>0.247648981641701</v>
       </c>
       <c r="T71">
         <v>2.371693123281234</v>
       </c>
       <c r="U71">
-        <v>0.0276</v>
+        <v>0.02</v>
       </c>
       <c r="V71">
         <v>0.22</v>
       </c>
       <c r="W71">
-        <v>0.021528</v>
+        <v>0.0156</v>
       </c>
       <c r="X71" t="inlineStr">
         <is>
-          <t>A2/A</t>
+          <t>A1/A+</t>
         </is>
       </c>
       <c r="Y71">
-        <v>6.457563264290197</v>
+        <v>8.911437304720472</v>
       </c>
       <c r="Z71">
         <v>0</v>
@@ -7101,13 +7101,13 @@
         <v>0.7000000000000001</v>
       </c>
       <c r="B72">
-        <v>0.08998621256837556</v>
+        <v>0.08740653846422125</v>
       </c>
       <c r="C72">
-        <v>695.1188001406092</v>
+        <v>698.282412484554</v>
       </c>
       <c r="D72">
-        <v>1366.26380014061</v>
+        <v>1369.427412484554</v>
       </c>
       <c r="E72">
         <v>1389.495</v>
@@ -7134,45 +7134,45 @@
         <v>244.4</v>
       </c>
       <c r="M72">
-        <v>38.395602</v>
+        <v>27.8229</v>
       </c>
       <c r="N72">
-        <v>206.004398</v>
+        <v>216.5771</v>
       </c>
       <c r="O72">
-        <v>45.32096756</v>
+        <v>47.646962</v>
       </c>
       <c r="P72">
-        <v>160.68343044</v>
+        <v>168.930138</v>
       </c>
       <c r="Q72">
-        <v>192.18343044</v>
+        <v>200.430138</v>
       </c>
       <c r="R72">
         <v>2.333333333333334</v>
       </c>
       <c r="S72">
-        <v>0.2497220418945852</v>
+        <v>0.2549551282140709</v>
       </c>
       <c r="T72">
         <v>2.44439298322619</v>
       </c>
       <c r="U72">
-        <v>0.0276</v>
+        <v>0.02</v>
       </c>
       <c r="V72">
         <v>0.22</v>
       </c>
       <c r="W72">
-        <v>0.021528</v>
+        <v>0.0156</v>
       </c>
       <c r="X72" t="inlineStr">
         <is>
-          <t>A2/A</t>
+          <t>A1/A+</t>
         </is>
       </c>
       <c r="Y72">
-        <v>6.365312360514623</v>
+        <v>8.78413105751018</v>
       </c>
       <c r="Z72">
         <v>0</v>
@@ -7183,13 +7183,13 @@
         <v>0.71</v>
       </c>
       <c r="B73">
-        <v>0.0906917001952663</v>
+        <v>0.08727789261951525</v>
       </c>
       <c r="C73">
-        <v>666.7350554179366</v>
+        <v>679.9828781591291</v>
       </c>
       <c r="D73">
-        <v>1357.753555417937</v>
+        <v>1371.001378159129</v>
       </c>
       <c r="E73">
         <v>1409.3685</v>
@@ -7216,45 +7216,45 @@
         <v>244.4</v>
       </c>
       <c r="M73">
-        <v>41.06063835</v>
+        <v>28.22037</v>
       </c>
       <c r="N73">
-        <v>203.33936165</v>
+        <v>216.17963</v>
       </c>
       <c r="O73">
-        <v>44.734659563</v>
+        <v>47.5595186</v>
       </c>
       <c r="P73">
-        <v>158.604702087</v>
+        <v>168.6201114</v>
       </c>
       <c r="Q73">
-        <v>190.104702087</v>
+        <v>200.1201114</v>
       </c>
       <c r="R73">
         <v>2.448275862068965</v>
       </c>
       <c r="S73">
-        <v>0.2571590351560907</v>
+        <v>0.2627651469638457</v>
       </c>
       <c r="T73">
         <v>2.522106626615626</v>
       </c>
       <c r="U73">
-        <v>0.0291</v>
+        <v>0.02</v>
       </c>
       <c r="V73">
         <v>0.22</v>
       </c>
       <c r="W73">
-        <v>0.022698</v>
+        <v>0.0156</v>
       </c>
       <c r="X73" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A1/A+</t>
         </is>
       </c>
       <c r="Y73">
-        <v>5.95217244107945</v>
+        <v>8.6604109017706</v>
       </c>
       <c r="Z73">
         <v>0</v>
@@ -7265,13 +7265,13 @@
         <v>0.72</v>
       </c>
       <c r="B74">
-        <v>0.09057818782215708</v>
+        <v>0.08714924677480924</v>
       </c>
       <c r="C74">
-        <v>648.2236827673485</v>
+        <v>661.6869661047165</v>
       </c>
       <c r="D74">
-        <v>1359.115682767349</v>
+        <v>1372.578966104717</v>
       </c>
       <c r="E74">
         <v>1429.242</v>
@@ -7298,45 +7298,45 @@
         <v>244.4</v>
       </c>
       <c r="M74">
-        <v>41.6389572</v>
+        <v>28.61784</v>
       </c>
       <c r="N74">
-        <v>202.7610428</v>
+        <v>215.78216</v>
       </c>
       <c r="O74">
-        <v>44.607429416</v>
+        <v>47.4720752</v>
       </c>
       <c r="P74">
-        <v>158.153613384</v>
+        <v>168.3100848</v>
       </c>
       <c r="Q74">
-        <v>189.653613384</v>
+        <v>199.8100848</v>
       </c>
       <c r="R74">
         <v>2.571428571428571</v>
       </c>
       <c r="S74">
-        <v>0.2651272422219895</v>
+        <v>0.2711330241957473</v>
       </c>
       <c r="T74">
         <v>2.605371244532879</v>
       </c>
       <c r="U74">
-        <v>0.0291</v>
+        <v>0.02</v>
       </c>
       <c r="V74">
         <v>0.22</v>
       </c>
       <c r="W74">
-        <v>0.022698</v>
+        <v>0.0156</v>
       </c>
       <c r="X74" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A1/A+</t>
         </is>
       </c>
       <c r="Y74">
-        <v>5.869503379397791</v>
+        <v>8.540127417023786</v>
       </c>
       <c r="Z74">
         <v>0</v>
@@ -7347,13 +7347,13 @@
         <v>0.73</v>
       </c>
       <c r="B75">
-        <v>0.09046467544904779</v>
+        <v>0.08702060093010322</v>
       </c>
       <c r="C75">
-        <v>629.7150458918154</v>
+        <v>643.3946888399782</v>
       </c>
       <c r="D75">
-        <v>1360.480545891815</v>
+        <v>1374.160188839978</v>
       </c>
       <c r="E75">
         <v>1449.1155</v>
@@ -7380,45 +7380,45 @@
         <v>244.4</v>
       </c>
       <c r="M75">
-        <v>42.21727605</v>
+        <v>29.01531</v>
       </c>
       <c r="N75">
-        <v>202.18272395</v>
+        <v>215.38469</v>
       </c>
       <c r="O75">
-        <v>44.480199269</v>
+        <v>47.3846318</v>
       </c>
       <c r="P75">
-        <v>157.702524681</v>
+        <v>168.0000582</v>
       </c>
       <c r="Q75">
-        <v>189.202524681</v>
+        <v>199.5000582</v>
       </c>
       <c r="R75">
         <v>2.703703703703703</v>
       </c>
       <c r="S75">
-        <v>0.2736856868483252</v>
+        <v>0.2801207441855675</v>
       </c>
       <c r="T75">
         <v>2.694803611925484</v>
       </c>
       <c r="U75">
-        <v>0.0291</v>
+        <v>0.02</v>
       </c>
       <c r="V75">
         <v>0.22</v>
       </c>
       <c r="W75">
-        <v>0.022698</v>
+        <v>0.0156</v>
       </c>
       <c r="X75" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A1/A+</t>
         </is>
       </c>
       <c r="Y75">
-        <v>5.789099223515629</v>
+        <v>8.423139370215242</v>
       </c>
       <c r="Z75">
         <v>0</v>
@@ -7429,13 +7429,13 @@
         <v>0.74</v>
       </c>
       <c r="B76">
-        <v>0.09035116307593855</v>
+        <v>0.0868919550853972</v>
       </c>
       <c r="C76">
-        <v>611.2091530416524</v>
+        <v>625.1060589413287</v>
       </c>
       <c r="D76">
-        <v>1361.848153041652</v>
+        <v>1375.745058941329</v>
       </c>
       <c r="E76">
         <v>1468.989</v>
@@ -7462,45 +7462,45 @@
         <v>244.4</v>
       </c>
       <c r="M76">
-        <v>42.7955949</v>
+        <v>29.41278</v>
       </c>
       <c r="N76">
-        <v>201.6044051</v>
+        <v>214.98722</v>
       </c>
       <c r="O76">
-        <v>44.352969122</v>
+        <v>47.2971884</v>
       </c>
       <c r="P76">
-        <v>157.251435978</v>
+        <v>167.6900316</v>
       </c>
       <c r="Q76">
-        <v>188.751435978</v>
+        <v>199.1900316</v>
       </c>
       <c r="R76">
         <v>2.846153846153846</v>
       </c>
       <c r="S76">
-        <v>0.2829024733689944</v>
+        <v>0.2897998272515277</v>
       </c>
       <c r="T76">
         <v>2.791115392194443</v>
       </c>
       <c r="U76">
-        <v>0.0291</v>
+        <v>0.02</v>
       </c>
       <c r="V76">
         <v>0.22</v>
       </c>
       <c r="W76">
-        <v>0.022698</v>
+        <v>0.0156</v>
       </c>
       <c r="X76" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A1/A+</t>
         </is>
       </c>
       <c r="Y76">
-        <v>5.71086815292758</v>
+        <v>8.309313162509632</v>
       </c>
       <c r="Z76">
         <v>0</v>
@@ -7511,13 +7511,13 @@
         <v>0.75</v>
       </c>
       <c r="B77">
-        <v>0.0902376507028293</v>
+        <v>0.0867633092406912</v>
       </c>
       <c r="C77">
-        <v>592.7060125003861</v>
+        <v>606.821089043269</v>
       </c>
       <c r="D77">
-        <v>1363.218512500386</v>
+        <v>1377.333589043269</v>
       </c>
       <c r="E77">
         <v>1488.8625</v>
@@ -7544,45 +7544,45 @@
         <v>244.4</v>
       </c>
       <c r="M77">
-        <v>43.37391375</v>
+        <v>29.81025</v>
       </c>
       <c r="N77">
-        <v>201.02608625</v>
+        <v>214.58975</v>
       </c>
       <c r="O77">
-        <v>44.225738975</v>
+        <v>47.20974500000001</v>
       </c>
       <c r="P77">
-        <v>156.800347275</v>
+        <v>167.380005</v>
       </c>
       <c r="Q77">
-        <v>188.300347275</v>
+        <v>198.880005</v>
       </c>
       <c r="R77">
         <v>3</v>
       </c>
       <c r="S77">
-        <v>0.2928566028113172</v>
+        <v>0.3002532369627648</v>
       </c>
       <c r="T77">
         <v>2.89513211488492</v>
       </c>
       <c r="U77">
-        <v>0.0291</v>
+        <v>0.02</v>
       </c>
       <c r="V77">
         <v>0.22</v>
       </c>
       <c r="W77">
-        <v>0.022698</v>
+        <v>0.0156</v>
       </c>
       <c r="X77" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A1/A+</t>
         </is>
       </c>
       <c r="Y77">
-        <v>5.634723244221879</v>
+        <v>8.198522320342835</v>
       </c>
       <c r="Z77">
         <v>0</v>
@@ -7593,13 +7593,13 @@
         <v>0.76</v>
       </c>
       <c r="B78">
-        <v>0.09012413832972005</v>
+        <v>0.08663466339598519</v>
       </c>
       <c r="C78">
-        <v>574.2056325849164</v>
+        <v>588.5397918387218</v>
       </c>
       <c r="D78">
-        <v>1364.591632584916</v>
+        <v>1378.925791838722</v>
       </c>
       <c r="E78">
         <v>1508.736</v>
@@ -7626,45 +7626,45 @@
         <v>244.4</v>
       </c>
       <c r="M78">
-        <v>43.95223260000001</v>
+        <v>30.20772</v>
       </c>
       <c r="N78">
-        <v>200.4477674</v>
+        <v>214.19228</v>
       </c>
       <c r="O78">
-        <v>44.098508828</v>
+        <v>47.1223016</v>
       </c>
       <c r="P78">
-        <v>156.349258572</v>
+        <v>167.0699784</v>
       </c>
       <c r="Q78">
-        <v>187.849258572</v>
+        <v>198.5699784</v>
       </c>
       <c r="R78">
         <v>3.166666666666667</v>
       </c>
       <c r="S78">
-        <v>0.3036402430405002</v>
+        <v>0.3115777641499383</v>
       </c>
       <c r="T78">
         <v>3.007816897799602</v>
       </c>
       <c r="U78">
-        <v>0.0291</v>
+        <v>0.02</v>
       </c>
       <c r="V78">
         <v>0.22</v>
       </c>
       <c r="W78">
-        <v>0.022698</v>
+        <v>0.0156</v>
       </c>
       <c r="X78" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A1/A+</t>
         </is>
       </c>
       <c r="Y78">
-        <v>5.56058214890317</v>
+        <v>8.090647026654114</v>
       </c>
       <c r="Z78">
         <v>0</v>
@@ -7675,13 +7675,13 @@
         <v>0.77</v>
       </c>
       <c r="B79">
-        <v>0.0900106259566108</v>
+        <v>0.08650601755127917</v>
       </c>
       <c r="C79">
-        <v>555.7080216456857</v>
+        <v>570.2621800793722</v>
       </c>
       <c r="D79">
-        <v>1365.967521645686</v>
+        <v>1380.521680079372</v>
       </c>
       <c r="E79">
         <v>1528.6095</v>
@@ -7708,45 +7708,45 @@
         <v>244.4</v>
       </c>
       <c r="M79">
-        <v>44.53055145</v>
+        <v>30.60519</v>
       </c>
       <c r="N79">
-        <v>199.86944855</v>
+        <v>213.79481</v>
       </c>
       <c r="O79">
-        <v>43.971278681</v>
+        <v>47.0348582</v>
       </c>
       <c r="P79">
-        <v>155.898169869</v>
+        <v>166.7599518</v>
       </c>
       <c r="Q79">
-        <v>187.398169869</v>
+        <v>198.2599518</v>
       </c>
       <c r="R79">
         <v>3.347826086956522</v>
       </c>
       <c r="S79">
-        <v>0.3153615911156992</v>
+        <v>0.3238870328316486</v>
       </c>
       <c r="T79">
         <v>3.130300357489475</v>
       </c>
       <c r="U79">
-        <v>0.0291</v>
+        <v>0.02</v>
       </c>
       <c r="V79">
         <v>0.22</v>
       </c>
       <c r="W79">
-        <v>0.022698</v>
+        <v>0.0156</v>
       </c>
       <c r="X79" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A1/A+</t>
         </is>
       </c>
       <c r="Y79">
-        <v>5.488366796320013</v>
+        <v>7.98557368864562</v>
       </c>
       <c r="Z79">
         <v>0</v>
@@ -7757,13 +7757,13 @@
         <v>0.78</v>
       </c>
       <c r="B80">
-        <v>0.08989711358350155</v>
+        <v>0.08704661170657316</v>
       </c>
       <c r="C80">
-        <v>537.2131880668494</v>
+        <v>543.7071892060749</v>
       </c>
       <c r="D80">
-        <v>1367.34618806685</v>
+        <v>1373.840189206075</v>
       </c>
       <c r="E80">
         <v>1548.483</v>
@@ -7790,45 +7790,45 @@
         <v>244.4</v>
       </c>
       <c r="M80">
-        <v>45.10887030000001</v>
+        <v>32.70780630000001</v>
       </c>
       <c r="N80">
-        <v>199.2911297</v>
+        <v>211.6921937</v>
       </c>
       <c r="O80">
-        <v>43.844048534</v>
+        <v>46.572282614</v>
       </c>
       <c r="P80">
-        <v>155.447081166</v>
+        <v>165.119911086</v>
       </c>
       <c r="Q80">
-        <v>186.947081166</v>
+        <v>196.619911086</v>
       </c>
       <c r="R80">
         <v>3.545454545454546</v>
       </c>
       <c r="S80">
-        <v>0.3281485162886434</v>
+        <v>0.337315325938969</v>
       </c>
       <c r="T80">
         <v>3.263918677151154</v>
       </c>
       <c r="U80">
-        <v>0.0291</v>
+        <v>0.0211</v>
       </c>
       <c r="V80">
         <v>0.22</v>
       </c>
       <c r="W80">
-        <v>0.022698</v>
+        <v>0.016458</v>
       </c>
       <c r="X80" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A2/A</t>
         </is>
       </c>
       <c r="Y80">
-        <v>5.418003119444115</v>
+        <v>7.472222311650413</v>
       </c>
       <c r="Z80">
         <v>0</v>
@@ -7839,13 +7839,13 @@
         <v>0.79</v>
       </c>
       <c r="B81">
-        <v>0.08978360121039231</v>
+        <v>0.08692654586186715</v>
       </c>
       <c r="C81">
-        <v>518.7211402664454</v>
+        <v>525.3120539087497</v>
       </c>
       <c r="D81">
-        <v>1368.727640266446</v>
+        <v>1375.31855390875</v>
       </c>
       <c r="E81">
         <v>1568.3565</v>
@@ -7872,45 +7872,45 @@
         <v>244.4</v>
       </c>
       <c r="M81">
-        <v>45.68718915000001</v>
+        <v>33.12713715</v>
       </c>
       <c r="N81">
-        <v>198.71281085</v>
+        <v>211.27286285</v>
       </c>
       <c r="O81">
-        <v>43.716818387</v>
+        <v>46.480029827</v>
       </c>
       <c r="P81">
-        <v>154.995992463</v>
+        <v>164.792833023</v>
       </c>
       <c r="Q81">
-        <v>186.495992463</v>
+        <v>196.292833023</v>
       </c>
       <c r="R81">
         <v>3.761904761904763</v>
       </c>
       <c r="S81">
-        <v>0.342153243859011</v>
+        <v>0.3520225041041294</v>
       </c>
       <c r="T81">
         <v>3.410262551066326</v>
       </c>
       <c r="U81">
-        <v>0.0291</v>
+        <v>0.0211</v>
       </c>
       <c r="V81">
         <v>0.22</v>
       </c>
       <c r="W81">
-        <v>0.022698</v>
+        <v>0.016458</v>
       </c>
       <c r="X81" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A2/A</t>
         </is>
       </c>
       <c r="Y81">
-        <v>5.349420801476467</v>
+        <v>7.377637219097878</v>
       </c>
       <c r="Z81">
         <v>0</v>
@@ -7921,13 +7921,13 @@
         <v>0.8</v>
       </c>
       <c r="B82">
-        <v>0.08967008883728304</v>
+        <v>0.08680648001716115</v>
       </c>
       <c r="C82">
-        <v>500.2318866965652</v>
+        <v>506.9201037221655</v>
       </c>
       <c r="D82">
-        <v>1370.111886696566</v>
+        <v>1376.800103722166</v>
       </c>
       <c r="E82">
         <v>1588.23</v>
@@ -7954,45 +7954,45 @@
         <v>244.4</v>
       </c>
       <c r="M82">
-        <v>46.265508</v>
+        <v>33.546468</v>
       </c>
       <c r="N82">
-        <v>198.134492</v>
+        <v>210.853532</v>
       </c>
       <c r="O82">
-        <v>43.58958824</v>
+        <v>46.38777704</v>
       </c>
       <c r="P82">
-        <v>154.54490376</v>
+        <v>164.46575496</v>
       </c>
       <c r="Q82">
-        <v>186.04490376</v>
+        <v>195.96575496</v>
       </c>
       <c r="R82">
         <v>4.000000000000001</v>
       </c>
       <c r="S82">
-        <v>0.3575584441864153</v>
+        <v>0.3682004000858058</v>
       </c>
       <c r="T82">
         <v>3.571240812373015</v>
       </c>
       <c r="U82">
-        <v>0.0291</v>
+        <v>0.0211</v>
       </c>
       <c r="V82">
         <v>0.22</v>
       </c>
       <c r="W82">
-        <v>0.022698</v>
+        <v>0.016458</v>
       </c>
       <c r="X82" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A2/A</t>
         </is>
       </c>
       <c r="Y82">
-        <v>5.282553041458012</v>
+        <v>7.285416753859153</v>
       </c>
       <c r="Z82">
         <v>0</v>
@@ -8003,13 +8003,13 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="B83">
-        <v>0.0895565764641738</v>
+        <v>0.08668641417245514</v>
       </c>
       <c r="C83">
-        <v>481.745435843527</v>
+        <v>488.5313489508212</v>
       </c>
       <c r="D83">
-        <v>1371.498935843527</v>
+        <v>1378.284848950821</v>
       </c>
       <c r="E83">
         <v>1608.1035</v>
@@ -8036,45 +8036,45 @@
         <v>244.4</v>
       </c>
       <c r="M83">
-        <v>46.84382685000001</v>
+        <v>33.96579885000001</v>
       </c>
       <c r="N83">
-        <v>197.55617315</v>
+        <v>210.43420115</v>
       </c>
       <c r="O83">
-        <v>43.462358093</v>
+        <v>46.295524253</v>
       </c>
       <c r="P83">
-        <v>154.093815057</v>
+        <v>164.138676897</v>
       </c>
       <c r="Q83">
-        <v>185.593815057</v>
+        <v>195.638676897</v>
       </c>
       <c r="R83">
         <v>4.263157894736843</v>
       </c>
       <c r="S83">
-        <v>0.3745852445482832</v>
+        <v>0.386081232486606</v>
       </c>
       <c r="T83">
         <v>3.749164153817251</v>
       </c>
       <c r="U83">
-        <v>0.0291</v>
+        <v>0.0211</v>
       </c>
       <c r="V83">
         <v>0.22</v>
       </c>
       <c r="W83">
-        <v>0.022698</v>
+        <v>0.016458</v>
       </c>
       <c r="X83" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A2/A</t>
         </is>
       </c>
       <c r="Y83">
-        <v>5.217336337242481</v>
+        <v>7.195473337144843</v>
       </c>
       <c r="Z83">
         <v>0</v>
@@ -8085,13 +8085,13 @@
         <v>0.8200000000000001</v>
       </c>
       <c r="B84">
-        <v>0.08944306409106455</v>
+        <v>0.08656634832774912</v>
       </c>
       <c r="C84">
-        <v>463.2617962280485</v>
+        <v>470.1457999437118</v>
       </c>
       <c r="D84">
-        <v>1372.888796228049</v>
+        <v>1379.772799943712</v>
       </c>
       <c r="E84">
         <v>1627.977</v>
@@ -8118,45 +8118,45 @@
         <v>244.4</v>
       </c>
       <c r="M84">
-        <v>47.42214570000001</v>
+        <v>34.38512970000001</v>
       </c>
       <c r="N84">
-        <v>196.9778543</v>
+        <v>210.0148703</v>
       </c>
       <c r="O84">
-        <v>43.335127946</v>
+        <v>46.203271466</v>
       </c>
       <c r="P84">
-        <v>153.642726354</v>
+        <v>163.811598834</v>
       </c>
       <c r="Q84">
-        <v>185.142726354</v>
+        <v>195.311598834</v>
       </c>
       <c r="R84">
         <v>4.555555555555557</v>
       </c>
       <c r="S84">
-        <v>0.3935039116170254</v>
+        <v>0.4059488240430508</v>
       </c>
       <c r="T84">
         <v>3.946856755421957</v>
       </c>
       <c r="U84">
-        <v>0.0291</v>
+        <v>0.0211</v>
       </c>
       <c r="V84">
         <v>0.22</v>
       </c>
       <c r="W84">
-        <v>0.022698</v>
+        <v>0.016458</v>
       </c>
       <c r="X84" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A2/A</t>
         </is>
       </c>
       <c r="Y84">
-        <v>5.153710284349279</v>
+        <v>7.107723662301613</v>
       </c>
       <c r="Z84">
         <v>0</v>
@@ -8167,13 +8167,13 @@
         <v>0.8300000000000001</v>
       </c>
       <c r="B85">
-        <v>0.08932955171795531</v>
+        <v>0.08644628248304312</v>
       </c>
       <c r="C85">
-        <v>444.7809764054216</v>
+        <v>451.7634670945706</v>
       </c>
       <c r="D85">
-        <v>1374.281476405422</v>
+        <v>1381.263967094571</v>
       </c>
       <c r="E85">
         <v>1647.8505</v>
@@ -8200,45 +8200,45 @@
         <v>244.4</v>
       </c>
       <c r="M85">
-        <v>48.00046455000001</v>
+        <v>34.80446055000001</v>
       </c>
       <c r="N85">
-        <v>196.39953545</v>
+        <v>209.59553945</v>
       </c>
       <c r="O85">
-        <v>43.207897799</v>
+        <v>46.111018679</v>
       </c>
       <c r="P85">
-        <v>153.191637651</v>
+        <v>163.484520771</v>
       </c>
       <c r="Q85">
-        <v>184.691637651</v>
+        <v>194.984520771</v>
       </c>
       <c r="R85">
         <v>4.882352941176473</v>
       </c>
       <c r="S85">
-        <v>0.4146483042232667</v>
+        <v>0.4281537793120185</v>
       </c>
       <c r="T85">
         <v>4.16780731015663</v>
       </c>
       <c r="U85">
-        <v>0.0291</v>
+        <v>0.0211</v>
       </c>
       <c r="V85">
         <v>0.22</v>
       </c>
       <c r="W85">
-        <v>0.022698</v>
+        <v>0.016458</v>
       </c>
       <c r="X85" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A2/A</t>
         </is>
       </c>
       <c r="Y85">
-        <v>5.091617389357119</v>
+        <v>7.022088437454605</v>
       </c>
       <c r="Z85">
         <v>0</v>
@@ -8249,13 +8249,13 @@
         <v>0.84</v>
       </c>
       <c r="B86">
-        <v>0.08921603934484605</v>
+        <v>0.0863262166383371</v>
       </c>
       <c r="C86">
-        <v>426.3029849656884</v>
+        <v>433.3843608421118</v>
       </c>
       <c r="D86">
-        <v>1375.676984965688</v>
+        <v>1382.758360842112</v>
       </c>
       <c r="E86">
         <v>1667.724</v>
@@ -8282,45 +8282,45 @@
         <v>244.4</v>
       </c>
       <c r="M86">
-        <v>48.5787834</v>
+        <v>35.2237914</v>
       </c>
       <c r="N86">
-        <v>195.8212166</v>
+        <v>209.1762086</v>
       </c>
       <c r="O86">
-        <v>43.080667652</v>
+        <v>46.018765892</v>
       </c>
       <c r="P86">
-        <v>152.740548948</v>
+        <v>163.157442708</v>
       </c>
       <c r="Q86">
-        <v>184.240548948</v>
+        <v>194.657442708</v>
       </c>
       <c r="R86">
         <v>5.249999999999999</v>
       </c>
       <c r="S86">
-        <v>0.4384357459052877</v>
+        <v>0.4531343539896068</v>
       </c>
       <c r="T86">
         <v>4.416376684233133</v>
       </c>
       <c r="U86">
-        <v>0.0291</v>
+        <v>0.0211</v>
       </c>
       <c r="V86">
         <v>0.22</v>
       </c>
       <c r="W86">
-        <v>0.022698</v>
+        <v>0.016458</v>
       </c>
       <c r="X86" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A2/A</t>
         </is>
       </c>
       <c r="Y86">
-        <v>5.031002896626679</v>
+        <v>6.938492146532528</v>
       </c>
       <c r="Z86">
         <v>0</v>
@@ -8331,13 +8331,13 @@
         <v>0.85</v>
       </c>
       <c r="B87">
-        <v>0.0891025269717368</v>
+        <v>0.08620615079363109</v>
       </c>
       <c r="C87">
-        <v>407.8278305338156</v>
+        <v>415.0084916702729</v>
       </c>
       <c r="D87">
-        <v>1377.075330533816</v>
+        <v>1384.255991670273</v>
       </c>
       <c r="E87">
         <v>1687.5975</v>
@@ -8364,45 +8364,45 @@
         <v>244.4</v>
       </c>
       <c r="M87">
-        <v>49.15710225000001</v>
+        <v>35.64312225</v>
       </c>
       <c r="N87">
-        <v>195.24289775</v>
+        <v>208.75687775</v>
       </c>
       <c r="O87">
-        <v>42.953437505</v>
+        <v>45.926513105</v>
       </c>
       <c r="P87">
-        <v>152.289460245</v>
+        <v>162.830364645</v>
       </c>
       <c r="Q87">
-        <v>183.789460245</v>
+        <v>194.330364645</v>
       </c>
       <c r="R87">
         <v>5.666666666666666</v>
       </c>
       <c r="S87">
-        <v>0.4653948464782452</v>
+        <v>0.4814456719575405</v>
       </c>
       <c r="T87">
         <v>4.698088641519839</v>
       </c>
       <c r="U87">
-        <v>0.0291</v>
+        <v>0.0211</v>
       </c>
       <c r="V87">
         <v>0.22</v>
       </c>
       <c r="W87">
-        <v>0.022698</v>
+        <v>0.016458</v>
       </c>
       <c r="X87" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A2/A</t>
         </is>
       </c>
       <c r="Y87">
-        <v>4.971814627254599</v>
+        <v>6.856862827161557</v>
       </c>
       <c r="Z87">
         <v>0</v>
@@ -8413,13 +8413,13 @@
         <v>0.86</v>
       </c>
       <c r="B88">
-        <v>0.08898901459862754</v>
+        <v>0.08608608494892508</v>
       </c>
       <c r="C88">
-        <v>389.3555217698777</v>
+        <v>396.6358701084591</v>
       </c>
       <c r="D88">
-        <v>1378.476521769878</v>
+        <v>1385.756870108459</v>
       </c>
       <c r="E88">
         <v>1707.471</v>
@@ -8446,45 +8446,45 @@
         <v>244.4</v>
       </c>
       <c r="M88">
-        <v>49.7354211</v>
+        <v>36.06245310000001</v>
       </c>
       <c r="N88">
-        <v>194.6645789</v>
+        <v>208.3375469</v>
       </c>
       <c r="O88">
-        <v>42.826207358</v>
+        <v>45.834260318</v>
       </c>
       <c r="P88">
-        <v>151.838371542</v>
+        <v>162.503286582</v>
       </c>
       <c r="Q88">
-        <v>183.338371542</v>
+        <v>194.003286582</v>
       </c>
       <c r="R88">
         <v>6.142857142857142</v>
       </c>
       <c r="S88">
-        <v>0.4962052471330539</v>
+        <v>0.5138014639208933</v>
       </c>
       <c r="T88">
         <v>5.020045164133218</v>
       </c>
       <c r="U88">
-        <v>0.0291</v>
+        <v>0.0211</v>
       </c>
       <c r="V88">
         <v>0.22</v>
       </c>
       <c r="W88">
-        <v>0.022698</v>
+        <v>0.016458</v>
       </c>
       <c r="X88" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A2/A</t>
         </is>
       </c>
       <c r="Y88">
-        <v>4.914002829263268</v>
+        <v>6.777131864055026</v>
       </c>
       <c r="Z88">
         <v>0</v>
@@ -8495,13 +8495,13 @@
         <v>0.87</v>
       </c>
       <c r="B89">
-        <v>0.08887550222551831</v>
+        <v>0.08596601910421907</v>
       </c>
       <c r="C89">
-        <v>370.8860673692268</v>
+        <v>378.2665067317928</v>
       </c>
       <c r="D89">
-        <v>1379.880567369227</v>
+        <v>1387.261006731793</v>
       </c>
       <c r="E89">
         <v>1727.3445</v>
@@ -8528,45 +8528,45 @@
         <v>244.4</v>
       </c>
       <c r="M89">
-        <v>50.31373995</v>
+        <v>36.48178395</v>
       </c>
       <c r="N89">
-        <v>194.08626005</v>
+        <v>207.91821605</v>
       </c>
       <c r="O89">
-        <v>42.69897721100001</v>
+        <v>45.74200753100001</v>
       </c>
       <c r="P89">
-        <v>151.387282839</v>
+        <v>162.176208519</v>
       </c>
       <c r="Q89">
-        <v>182.887282839</v>
+        <v>193.676208519</v>
       </c>
       <c r="R89">
         <v>6.692307692307692</v>
       </c>
       <c r="S89">
-        <v>0.5317557094270638</v>
+        <v>0.5511350700324543</v>
       </c>
       <c r="T89">
         <v>5.391533459456348</v>
       </c>
       <c r="U89">
-        <v>0.0291</v>
+        <v>0.0211</v>
       </c>
       <c r="V89">
         <v>0.22</v>
       </c>
       <c r="W89">
-        <v>0.022698</v>
+        <v>0.016458</v>
       </c>
       <c r="X89" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A2/A</t>
         </is>
       </c>
       <c r="Y89">
-        <v>4.857520038122311</v>
+        <v>6.699233796652096</v>
       </c>
       <c r="Z89">
         <v>0</v>
@@ -8577,13 +8577,13 @@
         <v>0.88</v>
       </c>
       <c r="B90">
-        <v>0.08876198985240906</v>
+        <v>0.08584595325951305</v>
       </c>
       <c r="C90">
-        <v>352.4194760626826</v>
+        <v>359.90041216136</v>
       </c>
       <c r="D90">
-        <v>1381.287476062683</v>
+        <v>1388.76841216136</v>
       </c>
       <c r="E90">
         <v>1747.218</v>
@@ -8610,45 +8610,45 @@
         <v>244.4</v>
       </c>
       <c r="M90">
-        <v>50.89205880000001</v>
+        <v>36.9011148</v>
       </c>
       <c r="N90">
-        <v>193.5079412</v>
+        <v>207.4988852</v>
       </c>
       <c r="O90">
-        <v>42.571747064</v>
+        <v>45.64975474400001</v>
       </c>
       <c r="P90">
-        <v>150.936194136</v>
+        <v>161.849130456</v>
       </c>
       <c r="Q90">
-        <v>182.436194136</v>
+        <v>193.349130456</v>
       </c>
       <c r="R90">
         <v>7.333333333333334</v>
       </c>
       <c r="S90">
-        <v>0.5732312487700755</v>
+        <v>0.5946909438292755</v>
       </c>
       <c r="T90">
         <v>5.824936470666666</v>
       </c>
       <c r="U90">
-        <v>0.0291</v>
+        <v>0.0211</v>
       </c>
       <c r="V90">
         <v>0.22</v>
       </c>
       <c r="W90">
-        <v>0.022698</v>
+        <v>0.016458</v>
       </c>
       <c r="X90" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A2/A</t>
         </is>
       </c>
       <c r="Y90">
-        <v>4.802320946780011</v>
+        <v>6.623106139871958</v>
       </c>
       <c r="Z90">
         <v>0</v>
@@ -8659,13 +8659,13 @@
         <v>0.89</v>
       </c>
       <c r="B91">
-        <v>0.0886484774792998</v>
+        <v>0.08572588741480704</v>
       </c>
       <c r="C91">
-        <v>333.9557566167059</v>
+        <v>341.5375970644595</v>
       </c>
       <c r="D91">
-        <v>1382.697256616706</v>
+        <v>1390.27909706446</v>
       </c>
       <c r="E91">
         <v>1767.0915</v>
@@ -8692,45 +8692,45 @@
         <v>244.4</v>
       </c>
       <c r="M91">
-        <v>51.47037765</v>
+        <v>37.32044565</v>
       </c>
       <c r="N91">
-        <v>192.92962235</v>
+        <v>207.07955435</v>
       </c>
       <c r="O91">
-        <v>42.44451691699999</v>
+        <v>45.557501957</v>
       </c>
       <c r="P91">
-        <v>150.485105433</v>
+        <v>161.522052393</v>
       </c>
       <c r="Q91">
-        <v>181.985105433</v>
+        <v>193.022052393</v>
       </c>
       <c r="R91">
         <v>8.090909090909092</v>
       </c>
       <c r="S91">
-        <v>0.6222477952663619</v>
+        <v>0.6461660674073367</v>
       </c>
       <c r="T91">
         <v>6.337140029369768</v>
       </c>
       <c r="U91">
-        <v>0.0291</v>
+        <v>0.0211</v>
       </c>
       <c r="V91">
         <v>0.22</v>
       </c>
       <c r="W91">
-        <v>0.022698</v>
+        <v>0.016458</v>
       </c>
       <c r="X91" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A2/A</t>
         </is>
       </c>
       <c r="Y91">
-        <v>4.74836228445664</v>
+        <v>6.548689216952048</v>
       </c>
       <c r="Z91">
         <v>0</v>
@@ -8741,13 +8741,13 @@
         <v>0.9</v>
       </c>
       <c r="B92">
-        <v>0.08853496510619055</v>
+        <v>0.08560582157010101</v>
       </c>
       <c r="C92">
-        <v>315.4949178335833</v>
+        <v>323.1780721548571</v>
       </c>
       <c r="D92">
-        <v>1384.109917833583</v>
+        <v>1391.793072154857</v>
       </c>
       <c r="E92">
         <v>1786.965</v>
@@ -8774,45 +8774,45 @@
         <v>244.4</v>
       </c>
       <c r="M92">
-        <v>52.04869650000001</v>
+        <v>37.7397765</v>
       </c>
       <c r="N92">
-        <v>192.3513035</v>
+        <v>206.6602235</v>
       </c>
       <c r="O92">
-        <v>42.31728677</v>
+        <v>45.46524917</v>
       </c>
       <c r="P92">
-        <v>150.03401673</v>
+        <v>161.19497433</v>
       </c>
       <c r="Q92">
-        <v>181.53401673</v>
+        <v>192.69497433</v>
       </c>
       <c r="R92">
         <v>9.000000000000002</v>
       </c>
       <c r="S92">
-        <v>0.6810676510619056</v>
+        <v>0.7079362157010103</v>
       </c>
       <c r="T92">
         <v>6.951784299813491</v>
       </c>
       <c r="U92">
-        <v>0.0291</v>
+        <v>0.0211</v>
       </c>
       <c r="V92">
         <v>0.22</v>
       </c>
       <c r="W92">
-        <v>0.022698</v>
+        <v>0.016458</v>
       </c>
       <c r="X92" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A2/A</t>
         </is>
       </c>
       <c r="Y92">
-        <v>4.695602703518233</v>
+        <v>6.475926003430359</v>
       </c>
       <c r="Z92">
         <v>0</v>
@@ -8823,13 +8823,13 @@
         <v>0.91</v>
       </c>
       <c r="B93">
-        <v>0.0884214527330813</v>
+        <v>0.08655045572539501</v>
       </c>
       <c r="C93">
-        <v>297.0369685516109</v>
+        <v>291.4814944562079</v>
       </c>
       <c r="D93">
-        <v>1385.525468551611</v>
+        <v>1379.969994456208</v>
       </c>
       <c r="E93">
         <v>1806.8385</v>
@@ -8856,37 +8856,37 @@
         <v>244.4</v>
       </c>
       <c r="M93">
-        <v>52.62701535000001</v>
+        <v>40.8718401</v>
       </c>
       <c r="N93">
-        <v>191.77298465</v>
+        <v>203.5281599</v>
       </c>
       <c r="O93">
-        <v>42.190056623</v>
+        <v>44.776195178</v>
       </c>
       <c r="P93">
-        <v>149.582928027</v>
+        <v>158.751964722</v>
       </c>
       <c r="Q93">
-        <v>181.082928027</v>
+        <v>190.251964722</v>
       </c>
       <c r="R93">
         <v>10.11111111111111</v>
       </c>
       <c r="S93">
-        <v>0.7529585859231258</v>
+        <v>0.7834330636155004</v>
       </c>
       <c r="T93">
         <v>7.703016185911376</v>
       </c>
       <c r="U93">
-        <v>0.0291</v>
+        <v>0.0226</v>
       </c>
       <c r="V93">
         <v>0.22</v>
       </c>
       <c r="W93">
-        <v>0.022698</v>
+        <v>0.017628</v>
       </c>
       <c r="X93" t="inlineStr">
         <is>
@@ -8894,7 +8894,7 @@
         </is>
       </c>
       <c r="Y93">
-        <v>4.644002673809242</v>
+        <v>5.979667159639333</v>
       </c>
       <c r="Z93">
         <v>0</v>
@@ -8905,13 +8905,13 @@
         <v>0.92</v>
       </c>
       <c r="B94">
-        <v>0.08830794035997205</v>
+        <v>0.08644208988068901</v>
       </c>
       <c r="C94">
-        <v>278.5819176452776</v>
+        <v>272.9540956889266</v>
       </c>
       <c r="D94">
-        <v>1386.943917645278</v>
+        <v>1381.316095688927</v>
       </c>
       <c r="E94">
         <v>1826.712</v>
@@ -8938,37 +8938,37 @@
         <v>244.4</v>
       </c>
       <c r="M94">
-        <v>53.20533420000001</v>
+        <v>41.32098120000001</v>
       </c>
       <c r="N94">
-        <v>191.1946658</v>
+        <v>203.0790188</v>
       </c>
       <c r="O94">
-        <v>42.062826476</v>
+        <v>44.677384136</v>
       </c>
       <c r="P94">
-        <v>149.131839324</v>
+        <v>158.401634664</v>
       </c>
       <c r="Q94">
-        <v>180.631839324</v>
+        <v>189.901634664</v>
       </c>
       <c r="R94">
         <v>11.50000000000001</v>
       </c>
       <c r="S94">
-        <v>0.8428222544996511</v>
+        <v>0.877804123508613</v>
       </c>
       <c r="T94">
         <v>8.642056043533733</v>
       </c>
       <c r="U94">
-        <v>0.0291</v>
+        <v>0.0226</v>
       </c>
       <c r="V94">
         <v>0.22</v>
       </c>
       <c r="W94">
-        <v>0.022698</v>
+        <v>0.017628</v>
       </c>
       <c r="X94" t="inlineStr">
         <is>
@@ -8976,7 +8976,7 @@
         </is>
       </c>
       <c r="Y94">
-        <v>4.593524383876532</v>
+        <v>5.91467077746934</v>
       </c>
       <c r="Z94">
         <v>0</v>
@@ -8987,13 +8987,13 @@
         <v>0.93</v>
       </c>
       <c r="B95">
-        <v>0.08819442798686281</v>
+        <v>0.08633372403598297</v>
       </c>
       <c r="C95">
-        <v>260.1297740254527</v>
+        <v>254.4293256132523</v>
       </c>
       <c r="D95">
-        <v>1388.365274025453</v>
+        <v>1382.664825613253</v>
       </c>
       <c r="E95">
         <v>1846.5855</v>
@@ -9020,37 +9020,37 @@
         <v>244.4</v>
       </c>
       <c r="M95">
-        <v>53.78365305000001</v>
+        <v>41.7701223</v>
       </c>
       <c r="N95">
-        <v>190.61634695</v>
+        <v>202.6298777</v>
       </c>
       <c r="O95">
-        <v>41.935596329</v>
+        <v>44.578573094</v>
       </c>
       <c r="P95">
-        <v>148.680750621</v>
+        <v>158.051304606</v>
       </c>
       <c r="Q95">
-        <v>180.180750621</v>
+        <v>189.551304606</v>
       </c>
       <c r="R95">
         <v>13.2857142857143</v>
       </c>
       <c r="S95">
-        <v>0.9583612569551834</v>
+        <v>0.999138343371186</v>
       </c>
       <c r="T95">
         <v>9.849393003333903</v>
       </c>
       <c r="U95">
-        <v>0.0291</v>
+        <v>0.0226</v>
       </c>
       <c r="V95">
         <v>0.22</v>
       </c>
       <c r="W95">
-        <v>0.022698</v>
+        <v>0.017628</v>
       </c>
       <c r="X95" t="inlineStr">
         <is>
@@ -9058,7 +9058,7 @@
         </is>
       </c>
       <c r="Y95">
-        <v>4.544131648566031</v>
+        <v>5.851072166958917</v>
       </c>
       <c r="Z95">
         <v>0</v>
@@ -9069,13 +9069,13 @@
         <v>0.9400000000000001</v>
       </c>
       <c r="B96">
-        <v>0.09863899561375356</v>
+        <v>0.08622535819127698</v>
       </c>
       <c r="C96">
-        <v>120.6206711117929</v>
+        <v>235.9071919367477</v>
       </c>
       <c r="D96">
-        <v>1268.729671111793</v>
+        <v>1384.016191936748</v>
       </c>
       <c r="E96">
         <v>1866.459</v>
@@ -9102,45 +9102,45 @@
         <v>244.4</v>
       </c>
       <c r="M96">
-        <v>81.2627415</v>
+        <v>42.2192634</v>
       </c>
       <c r="N96">
-        <v>163.1372585</v>
+        <v>202.1807366</v>
       </c>
       <c r="O96">
-        <v>35.89019687</v>
+        <v>44.479762052</v>
       </c>
       <c r="P96">
-        <v>127.24706163</v>
+        <v>157.700974548</v>
       </c>
       <c r="Q96">
-        <v>158.74706163</v>
+        <v>189.2009745479999</v>
       </c>
       <c r="R96">
         <v>15.66666666666668</v>
       </c>
       <c r="S96">
-        <v>1.112413260229227</v>
+        <v>1.160917303187951</v>
       </c>
       <c r="T96">
         <v>11.4591756164008</v>
       </c>
       <c r="U96">
-        <v>0.0435</v>
+        <v>0.0226</v>
       </c>
       <c r="V96">
         <v>0.22</v>
       </c>
       <c r="W96">
-        <v>0.03393</v>
+        <v>0.017628</v>
       </c>
       <c r="X96" t="inlineStr">
         <is>
-          <t>Ba2/BB</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y96">
-        <v>3.00752836402892</v>
+        <v>5.788826718374247</v>
       </c>
       <c r="Z96">
         <v>0</v>
@@ -9151,13 +9151,13 @@
         <v>0.9500000000000001</v>
       </c>
       <c r="B97">
-        <v>0.1141247032406443</v>
+        <v>0.08611699234657097</v>
       </c>
       <c r="C97">
-        <v>-42.98349187402641</v>
+        <v>217.387702397137</v>
       </c>
       <c r="D97">
-        <v>1124.999008125974</v>
+        <v>1385.370202397138</v>
       </c>
       <c r="E97">
         <v>1886.3325</v>
@@ -9184,45 +9184,45 @@
         <v>244.4</v>
       </c>
       <c r="M97">
-        <v>121.586073</v>
+        <v>42.6684045</v>
       </c>
       <c r="N97">
-        <v>122.813927</v>
+        <v>201.7315955</v>
       </c>
       <c r="O97">
-        <v>27.01906394</v>
+        <v>44.38095101</v>
       </c>
       <c r="P97">
-        <v>95.79486306</v>
+        <v>157.35064449</v>
       </c>
       <c r="Q97">
-        <v>127.29486306</v>
+        <v>188.85064449</v>
       </c>
       <c r="R97">
         <v>19.00000000000003</v>
       </c>
       <c r="S97">
-        <v>1.328086064812888</v>
+        <v>1.387407846931421</v>
       </c>
       <c r="T97">
         <v>13.71287127469446</v>
       </c>
       <c r="U97">
-        <v>0.0644</v>
+        <v>0.0226</v>
       </c>
       <c r="V97">
         <v>0.22</v>
       </c>
       <c r="W97">
-        <v>0.050232</v>
+        <v>0.017628</v>
       </c>
       <c r="X97" t="inlineStr">
         <is>
-          <t>B2/B</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y97">
-        <v>2.010098640162512</v>
+        <v>5.727891700286098</v>
       </c>
       <c r="Z97">
         <v>0</v>
@@ -9233,13 +9233,13 @@
         <v>0.96</v>
       </c>
       <c r="B98">
-        <v>0.1223735708675351</v>
+        <v>0.08600862650186496</v>
       </c>
       <c r="C98">
-        <v>-126.8818206756819</v>
+        <v>198.870864762456</v>
       </c>
       <c r="D98">
-        <v>1060.974179324318</v>
+        <v>1386.726864762456</v>
       </c>
       <c r="E98">
         <v>1906.206</v>
@@ -9266,45 +9266,45 @@
         <v>244.4</v>
       </c>
       <c r="M98">
-        <v>143.4707712</v>
+        <v>43.1175456</v>
       </c>
       <c r="N98">
-        <v>100.9292288</v>
+        <v>201.2824544</v>
       </c>
       <c r="O98">
-        <v>22.204430336</v>
+        <v>44.282139968</v>
       </c>
       <c r="P98">
-        <v>78.724798464</v>
+        <v>157.000314432</v>
       </c>
       <c r="Q98">
-        <v>110.224798464</v>
+        <v>188.500314432</v>
       </c>
       <c r="R98">
         <v>23.99999999999998</v>
       </c>
       <c r="S98">
-        <v>1.651595271688375</v>
+        <v>1.727143662546622</v>
       </c>
       <c r="T98">
         <v>17.0934147621349</v>
       </c>
       <c r="U98">
-        <v>0.0752</v>
+        <v>0.0226</v>
       </c>
       <c r="V98">
         <v>0.22</v>
       </c>
       <c r="W98">
-        <v>0.05865600000000001</v>
+        <v>0.017628</v>
       </c>
       <c r="X98" t="inlineStr">
         <is>
-          <t>B3/B-</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y98">
-        <v>1.703482862438255</v>
+        <v>5.668226161741451</v>
       </c>
       <c r="Z98">
         <v>0</v>
@@ -9315,13 +9315,13 @@
         <v>0.97</v>
       </c>
       <c r="B99">
-        <v>0.1226196384944258</v>
+        <v>0.08590026065715894</v>
       </c>
       <c r="C99">
-        <v>-148.5534651328346</v>
+        <v>180.3566868311957</v>
       </c>
       <c r="D99">
-        <v>1059.176034867166</v>
+        <v>1388.086186831196</v>
       </c>
       <c r="E99">
         <v>1926.0795</v>
@@ -9348,45 +9348,45 @@
         <v>244.4</v>
       </c>
       <c r="M99">
-        <v>144.9652584</v>
+        <v>43.5666867</v>
       </c>
       <c r="N99">
-        <v>99.4347416</v>
+        <v>200.8333133</v>
       </c>
       <c r="O99">
-        <v>21.875643152</v>
+        <v>44.183328926</v>
       </c>
       <c r="P99">
-        <v>77.559098448</v>
+        <v>156.649984374</v>
       </c>
       <c r="Q99">
-        <v>109.059098448</v>
+        <v>188.149984374</v>
       </c>
       <c r="R99">
         <v>32.33333333333331</v>
       </c>
       <c r="S99">
-        <v>2.190777283147525</v>
+        <v>2.293370021905296</v>
       </c>
       <c r="T99">
         <v>22.72765390786902</v>
       </c>
       <c r="U99">
-        <v>0.0752</v>
+        <v>0.0226</v>
       </c>
       <c r="V99">
         <v>0.22</v>
       </c>
       <c r="W99">
-        <v>0.05865600000000001</v>
+        <v>0.017628</v>
       </c>
       <c r="X99" t="inlineStr">
         <is>
-          <t>B3/B-</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y99">
-        <v>1.685921183444046</v>
+        <v>5.609790840486386</v>
       </c>
       <c r="Z99">
         <v>0</v>
@@ -9397,13 +9397,13 @@
         <v>0.98</v>
       </c>
       <c r="B100">
-        <v>0.1228657061213166</v>
+        <v>0.08579189481245295</v>
       </c>
       <c r="C100">
-        <v>-170.2190248935449</v>
+        <v>161.8451764324554</v>
       </c>
       <c r="D100">
-        <v>1057.383975106455</v>
+        <v>1389.448176432456</v>
       </c>
       <c r="E100">
         <v>1945.953</v>
@@ -9430,45 +9430,45 @@
         <v>244.4</v>
       </c>
       <c r="M100">
-        <v>146.4597456</v>
+        <v>44.0158278</v>
       </c>
       <c r="N100">
-        <v>97.94025439999999</v>
+        <v>200.3841722</v>
       </c>
       <c r="O100">
-        <v>21.546855968</v>
+        <v>44.08451788400001</v>
       </c>
       <c r="P100">
-        <v>76.393398432</v>
+        <v>156.299654316</v>
       </c>
       <c r="Q100">
-        <v>107.893398432</v>
+        <v>187.799654316</v>
       </c>
       <c r="R100">
         <v>48.99999999999996</v>
       </c>
       <c r="S100">
-        <v>3.269141306065825</v>
+        <v>3.425822740622644</v>
       </c>
       <c r="T100">
         <v>33.99613219933727</v>
       </c>
       <c r="U100">
-        <v>0.0752</v>
+        <v>0.0226</v>
       </c>
       <c r="V100">
         <v>0.22</v>
       </c>
       <c r="W100">
-        <v>0.05865600000000001</v>
+        <v>0.017628</v>
       </c>
       <c r="X100" t="inlineStr">
         <is>
-          <t>B3/B-</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y100">
-        <v>1.668717906061964</v>
+        <v>5.552548076807953</v>
       </c>
       <c r="Z100">
         <v>0</v>
@@ -9479,13 +9479,13 @@
         <v>0.99</v>
       </c>
       <c r="B101">
-        <v>0.1231117737482073</v>
+        <v>0.08568352896774692</v>
       </c>
       <c r="C101">
-        <v>-191.8785307904261</v>
+        <v>143.3363414260934</v>
       </c>
       <c r="D101">
-        <v>1055.597969209574</v>
+        <v>1390.812841426094</v>
       </c>
       <c r="E101">
         <v>1965.8265</v>
@@ -9512,45 +9512,45 @@
         <v>244.4</v>
       </c>
       <c r="M101">
-        <v>147.9542328</v>
+        <v>44.4649689</v>
       </c>
       <c r="N101">
-        <v>96.44576719999998</v>
+        <v>199.9350311</v>
       </c>
       <c r="O101">
-        <v>21.218068784</v>
+        <v>43.985706842</v>
       </c>
       <c r="P101">
-        <v>75.22769841599998</v>
+        <v>155.949324258</v>
       </c>
       <c r="Q101">
-        <v>106.727698416</v>
+        <v>187.449324258</v>
       </c>
       <c r="R101">
         <v>98.99999999999991</v>
       </c>
       <c r="S101">
-        <v>6.504233374820724</v>
+        <v>6.823180896774685</v>
       </c>
       <c r="T101">
         <v>67.80156707374199</v>
       </c>
       <c r="U101">
-        <v>0.0752</v>
+        <v>0.0226</v>
       </c>
       <c r="V101">
         <v>0.22</v>
       </c>
       <c r="W101">
-        <v>0.05865600000000001</v>
+        <v>0.017628</v>
       </c>
       <c r="X101" t="inlineStr">
         <is>
-          <t>B3/B-</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y101">
-        <v>1.651862169637096</v>
+        <v>5.496461732597771</v>
       </c>
       <c r="Z101">
         <v>0</v>
